--- a/Testing/G2_TestPlan.xlsx
+++ b/Testing/G2_TestPlan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucasnhandang/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5D6EDC3-AE3C-DE49-ADEE-7F5B98D2BAB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88892AE9-077E-4259-9940-6093373C109E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19260" activeTab="7" xr2:uid="{BA49DA37-6C72-4F0C-8F29-A460207C1BDB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="6" xr2:uid="{BA49DA37-6C72-4F0C-8F29-A460207C1BDB}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -42,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="390">
   <si>
     <t>1. Introduction</t>
   </si>
@@ -768,12 +773,871 @@
   <si>
     <t>Pass</t>
   </si>
+  <si>
+    <t>Success – valid existing &amp; active product</t>
+  </si>
+  <si>
+    <t>Failure – product not found</t>
+  </si>
+  <si>
+    <t>Failure – product is inactive</t>
+  </si>
+  <si>
+    <t>Validation – ID = 0 (boundary condition)</t>
+  </si>
+  <si>
+    <t>Validation – negative ID</t>
+  </si>
+  <si>
+    <t>Exception – non-integer ID (type error)</t>
+  </si>
+  <si>
+    <t>UC003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">View Product Details Suite		</t>
+  </si>
+  <si>
+    <t>Verify all valid, invalid, and boundary scenarios for viewing product details</t>
+  </si>
+  <si>
+    <t>US009</t>
+  </si>
+  <si>
+    <t>Valid product</t>
+  </si>
+  <si>
+    <t>Returns details of existing, active product</t>
+  </si>
+  <si>
+    <t>get_product_details(42)</t>
+  </si>
+  <si>
+    <t>product_id=42</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>ProductDTO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> instance with: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>id==42</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>status==ACTIVE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, all fields (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>price</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, etc.) not null</t>
+    </r>
+  </si>
+  <si>
+    <t>ProductDTO with id=42, active</t>
+  </si>
+  <si>
+    <t>Product not found</t>
+  </si>
+  <si>
+    <t>Raises exception when product ID is not in database</t>
+  </si>
+  <si>
+    <t>get_product_details(999)</t>
+  </si>
+  <si>
+    <t>product_id=999</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Raises </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>ProductNotFoundError</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> with message ≈ "Product 999 not found"</t>
+    </r>
+  </si>
+  <si>
+    <t>Exception: ProductNotFoundError with message</t>
+  </si>
+  <si>
+    <t>Inactive product</t>
+  </si>
+  <si>
+    <t>Raises error if product is inactive</t>
+  </si>
+  <si>
+    <t>get_product_details(87)</t>
+  </si>
+  <si>
+    <t>product_id=87</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Raises </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>InactiveProductError</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> with message ≈ "Product 87 is inactive"</t>
+    </r>
+  </si>
+  <si>
+    <t>Exception: InactiveProductError with message</t>
+  </si>
+  <si>
+    <t>ID is zero</t>
+  </si>
+  <si>
+    <t>Rejects zero as invalid product ID</t>
+  </si>
+  <si>
+    <t>get_product_details(0)</t>
+  </si>
+  <si>
+    <t>product_id=0</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Raises </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>ValueError</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> with message ≈ "product_id must be a positive integer"</t>
+    </r>
+  </si>
+  <si>
+    <t>Exception: ValueError with message</t>
+  </si>
+  <si>
+    <t>Negative ID</t>
+  </si>
+  <si>
+    <t>Rejects negative ID values</t>
+  </si>
+  <si>
+    <t>get_product_details(-1)</t>
+  </si>
+  <si>
+    <t>product_id=-1</t>
+  </si>
+  <si>
+    <t>Non-integer ID</t>
+  </si>
+  <si>
+    <t>Validates input type</t>
+  </si>
+  <si>
+    <t>get_product_details("x")</t>
+  </si>
+  <si>
+    <t>product_id="x"</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Raises </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>TypeError</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>ValueError</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for invalid type</t>
+    </r>
+  </si>
+  <si>
+    <t>Exception: TypeError or ValueError with message</t>
+  </si>
+  <si>
+    <t>TC013</t>
+  </si>
+  <si>
+    <t>TC014</t>
+  </si>
+  <si>
+    <t>TC015</t>
+  </si>
+  <si>
+    <t>TC016</t>
+  </si>
+  <si>
+    <t>TC017</t>
+  </si>
+  <si>
+    <t>TC018</t>
+  </si>
+  <si>
+    <t>TC0013,TC0014, TC0015, TC0016, TC0017, TC0018</t>
+  </si>
+  <si>
+    <t>UT013</t>
+  </si>
+  <si>
+    <t>UT014</t>
+  </si>
+  <si>
+    <t>UT015</t>
+  </si>
+  <si>
+    <t>UT016</t>
+  </si>
+  <si>
+    <t>UT0017</t>
+  </si>
+  <si>
+    <t>UT018</t>
+  </si>
+  <si>
+    <t>TC019</t>
+  </si>
+  <si>
+    <t>TC020</t>
+  </si>
+  <si>
+    <t>TC021</t>
+  </si>
+  <si>
+    <t>TC022</t>
+  </si>
+  <si>
+    <t>TC023</t>
+  </si>
+  <si>
+    <t>TC024</t>
+  </si>
+  <si>
+    <t>UC001</t>
+  </si>
+  <si>
+    <t>UC004</t>
+  </si>
+  <si>
+    <t>UC005</t>
+  </si>
+  <si>
+    <t>Rush Order Placement Suite</t>
+  </si>
+  <si>
+    <t>Verify all scenarios of the Place Rush Order use case, includes:
+- Check whether the delivery address supports rush order
+- Verify that the products are eligible</t>
+  </si>
+  <si>
+    <t>US010</t>
+  </si>
+  <si>
+    <t>All Products Eligible &amp; Inner-city Address</t>
+  </si>
+  <si>
+    <t>Verify that the method returns true when the address is in inner-city Hanoi and all products are eligible for rush delivery.</t>
+  </si>
+  <si>
+    <t>RushOrderService.isRushOrderEligible(Address address, List&lt;Product&gt; products</t>
+  </si>
+  <si>
+    <t>product = [eligibleProduct, eligibleProduct]
+DeliveryInfo.getProvince = "HN"</t>
+  </si>
+  <si>
+    <t>Some Products Eligible &amp; Inner-city Address</t>
+  </si>
+  <si>
+    <t>Verify that the method returns true when the address is valid and at least one product is eligible for rush delivery.</t>
+  </si>
+  <si>
+    <t>product = [eligibleProduct, ineligibleProduct]
+DeliveryInfo.getProvince = "HN"</t>
+  </si>
+  <si>
+    <t>No Products Eligible &amp; Inner-city Address</t>
+  </si>
+  <si>
+    <t>Verify that the method returns false when the address is valid but no products are eligible for rush delivery.</t>
+  </si>
+  <si>
+    <t>All Products Eligible &amp; Outer-city Address</t>
+  </si>
+  <si>
+    <t>Verify that the method returns false when the address is outside inner-city Hanoi, even if all products are eligible.</t>
+  </si>
+  <si>
+    <t>product = [ineligibleProduct, ineligibleProduct]
+DeliveryInfo.getProvince = "HN"</t>
+  </si>
+  <si>
+    <t>Some Products Eligible &amp; Outer-city Address</t>
+  </si>
+  <si>
+    <t>Verify that the method returns false when the address is invalid, even if some products are eligible.</t>
+  </si>
+  <si>
+    <t>product = [eligibleProduct, ineligibleProduct]
+DeliveryInfo.getProvince = "HP"</t>
+  </si>
+  <si>
+    <t>No Products Eligible &amp; Outer-city Address</t>
+  </si>
+  <si>
+    <t>Verify that the method returns false when both address and products are ineligible for rush delivery.</t>
+  </si>
+  <si>
+    <t>product = [ineligibleProduct, ineligibleProduct]
+DeliveryInfo.getProvince = "HP"</t>
+  </si>
+  <si>
+    <t>Null Address Input</t>
+  </si>
+  <si>
+    <t>Verify that the method handles a null address by returning false or throwing an exception.</t>
+  </si>
+  <si>
+    <t>product = [eligibleProduct, eligibleProduct]
+DeliveryInfo.getProvince = NULL</t>
+  </si>
+  <si>
+    <t>exception</t>
+  </si>
+  <si>
+    <t>Null Product List Input</t>
+  </si>
+  <si>
+    <t>Verify that the method handles a null product list by returning false or throwing an exception.</t>
+  </si>
+  <si>
+    <t>product = NULL
+DeliveryInfo.getProvince = "X"</t>
+  </si>
+  <si>
+    <t>TC025</t>
+  </si>
+  <si>
+    <t>TC026</t>
+  </si>
+  <si>
+    <t>UT019</t>
+  </si>
+  <si>
+    <t>UT020</t>
+  </si>
+  <si>
+    <t>UT021</t>
+  </si>
+  <si>
+    <t>UT022</t>
+  </si>
+  <si>
+    <t>UT023</t>
+  </si>
+  <si>
+    <t>UT025</t>
+  </si>
+  <si>
+    <t>UT026</t>
+  </si>
+  <si>
+    <t>Successful Payment</t>
+  </si>
+  <si>
+    <t>Insufficient Stock</t>
+  </si>
+  <si>
+    <t>Out of Stock</t>
+  </si>
+  <si>
+    <t>Null Delivery Info</t>
+  </si>
+  <si>
+    <t>Null Product List</t>
+  </si>
+  <si>
+    <t>Empty Product List</t>
+  </si>
+  <si>
+    <t>Database Failure</t>
+  </si>
+  <si>
+    <t>TC027</t>
+  </si>
+  <si>
+    <t>TC028</t>
+  </si>
+  <si>
+    <t>TC029</t>
+  </si>
+  <si>
+    <t>TC030</t>
+  </si>
+  <si>
+    <t>TC031</t>
+  </si>
+  <si>
+    <t>TC032</t>
+  </si>
+  <si>
+    <t>TC033</t>
+  </si>
+  <si>
+    <t>Pay Order Functionality</t>
+  </si>
+  <si>
+    <t>Unit test suite verifying behavior of the payOrder use case.</t>
+  </si>
+  <si>
+    <t>TC019, TC020, TC021, TC022, TC023, TC024,TC025, TC026</t>
+  </si>
+  <si>
+    <t>US011</t>
+  </si>
+  <si>
+    <t>US012</t>
+  </si>
+  <si>
+    <t>US013</t>
+  </si>
+  <si>
+    <t>US014</t>
+  </si>
+  <si>
+    <t>TC027, TC028, TC029, TC030, TC031, TC032,TC033, TC034</t>
+  </si>
+  <si>
+    <t>TC034</t>
+  </si>
+  <si>
+    <t>Valid rejection with reason</t>
+  </si>
+  <si>
+    <t>TC035</t>
+  </si>
+  <si>
+    <t>Reject with null reason (IllegalArgumentException)</t>
+  </si>
+  <si>
+    <t>TC036</t>
+  </si>
+  <si>
+    <t>Reject with blank reason (IllegalArgumentException)</t>
+  </si>
+  <si>
+    <t>TC037</t>
+  </si>
+  <si>
+    <t>Reject when order status is 'rejectedNotRefunded' (IllegalStateException)</t>
+  </si>
+  <si>
+    <t>TC038</t>
+  </si>
+  <si>
+    <t>Reject when order status is 'refunded' (IllegalStateException)</t>
+  </si>
+  <si>
+    <t>TC039</t>
+  </si>
+  <si>
+    <t>Reject when order status is 'approved' (IllegalStateException)</t>
+  </si>
+  <si>
+    <t>TC040</t>
+  </si>
+  <si>
+    <t>Reject when order status is 'delivered' (IllegalStateException)</t>
+  </si>
+  <si>
+    <t>TC041</t>
+  </si>
+  <si>
+    <t>Reject when order status is 'canceled' (IllegalStateException)</t>
+  </si>
+  <si>
+    <t>UC009</t>
+  </si>
+  <si>
+    <t>Valid rejection</t>
+  </si>
+  <si>
+    <t>Reject a pending order with valid reason</t>
+  </si>
+  <si>
+    <t>OrderService.updateRejectedStatusAndReason</t>
+  </si>
+  <si>
+    <t>Order with status 'pending', reason = 'Customer request'</t>
+  </si>
+  <si>
+    <t>Status changed to 'rejectedNotRefunded', reason saved</t>
+  </si>
+  <si>
+    <t>Null reason</t>
+  </si>
+  <si>
+    <t>Reject a pending order with null reason</t>
+  </si>
+  <si>
+    <t>Order with status 'pending', reason = null</t>
+  </si>
+  <si>
+    <t>Throw IllegalArgumentException</t>
+  </si>
+  <si>
+    <t>IllegalArgumentException thrown</t>
+  </si>
+  <si>
+    <t>Negative test</t>
+  </si>
+  <si>
+    <t>Blank reason</t>
+  </si>
+  <si>
+    <t>Reject a pending order with blank reason</t>
+  </si>
+  <si>
+    <t>Order with status 'pending', reason = '  '</t>
+  </si>
+  <si>
+    <t>Status: rejectedNotRefunded</t>
+  </si>
+  <si>
+    <t>Reject an already rejected order</t>
+  </si>
+  <si>
+    <t>Order with status 'rejectedNotRefunded', valid reason</t>
+  </si>
+  <si>
+    <t>Throw IllegalStateException</t>
+  </si>
+  <si>
+    <t>IllegalStateException thrown</t>
+  </si>
+  <si>
+    <t>Invalid state</t>
+  </si>
+  <si>
+    <t>Status: refunded</t>
+  </si>
+  <si>
+    <t>Reject a refunded order</t>
+  </si>
+  <si>
+    <t>Order with status 'refunded', valid reason</t>
+  </si>
+  <si>
+    <t>Status: approved</t>
+  </si>
+  <si>
+    <t>Reject an approved order</t>
+  </si>
+  <si>
+    <t>Order with status 'approved', valid reason</t>
+  </si>
+  <si>
+    <t>Status: delivered</t>
+  </si>
+  <si>
+    <t>Reject a delivered order</t>
+  </si>
+  <si>
+    <t>Order with status 'delivered', valid reason</t>
+  </si>
+  <si>
+    <t>Status: canceled</t>
+  </si>
+  <si>
+    <t>Reject a canceled order</t>
+  </si>
+  <si>
+    <t>Order with status 'canceled', valid reason</t>
+  </si>
+  <si>
+    <t>TC042</t>
+  </si>
+  <si>
+    <t>TC043</t>
+  </si>
+  <si>
+    <t>TC044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Restock Valid Quantity</t>
+  </si>
+  <si>
+    <t>Restock Zero Quantity Throws Exception</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Restock Negative Quantity Throws Exception</t>
+  </si>
+  <si>
+    <t>TC045</t>
+  </si>
+  <si>
+    <t>TC046</t>
+  </si>
+  <si>
+    <t>TC047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Available Product	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insufficient Stock	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Out of Stock	</t>
+  </si>
+  <si>
+    <t>Return to Inventory Test Suite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Check Product Availability Test Suite</t>
+  </si>
+  <si>
+    <t>Verify correct restocking behavior including valid, zero, and negative input</t>
+  </si>
+  <si>
+    <t>TC042, TC043, TC044</t>
+  </si>
+  <si>
+    <t>Validate stock availability logic and exception handling in edge cases</t>
+  </si>
+  <si>
+    <t>TC045, TC046, TC047</t>
+  </si>
+  <si>
+    <t>UT027</t>
+  </si>
+  <si>
+    <t>UT028</t>
+  </si>
+  <si>
+    <t>UT029</t>
+  </si>
+  <si>
+    <t>UT030</t>
+  </si>
+  <si>
+    <t>UT031</t>
+  </si>
+  <si>
+    <t>UT032</t>
+  </si>
+  <si>
+    <t>UT033</t>
+  </si>
+  <si>
+    <t>payOrder</t>
+  </si>
+  <si>
+    <t>Order với 1 product, deliveryInfo != null</t>
+  </si>
+  <si>
+    <t>Trả về true, order được lưu</t>
+  </si>
+  <si>
+    <t>Exception</t>
+  </si>
+  <si>
+    <t>throw exception</t>
+  </si>
+  <si>
+    <t>Product throw Insufficient stock exception</t>
+  </si>
+  <si>
+    <t>Product throw out of stock exception</t>
+  </si>
+  <si>
+    <t>deliveryInfo = null</t>
+  </si>
+  <si>
+    <t>products = null</t>
+  </si>
+  <si>
+    <t>products = empty</t>
+  </si>
+  <si>
+    <t>DTB throw database fail connection exception</t>
+  </si>
+  <si>
+    <t>Verify successful payment with available product and working database.</t>
+  </si>
+  <si>
+    <t>Verify product has insufficient stock</t>
+  </si>
+  <si>
+    <t>Verify product is out of stock.</t>
+  </si>
+  <si>
+    <t>Verify behavior when delivery information is null</t>
+  </si>
+  <si>
+    <t>Verify behavior when the product list is null.</t>
+  </si>
+  <si>
+    <t>Verify behavior when the product list is empty.</t>
+  </si>
+  <si>
+    <t>Verify error handling when saving the order to the database fails.</t>
+  </si>
+  <si>
+    <t>Update Rejected Status</t>
+  </si>
+  <si>
+    <t>TC034, TC035, TC036, TC037, TC038, TC039, TC040, TC041</t>
+  </si>
+  <si>
+    <t>Verify that an order's status is correctly updated to "Rejected" when the rejection flow is triggered.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25">
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -954,8 +1818,65 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arimo"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -991,8 +1912,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD6DCE4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1067,14 +1994,205 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1139,6 +2257,95 @@
     <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="5" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1151,6 +2358,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1160,6 +2373,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1193,46 +2450,14 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{30B915D8-0FED-43D3-AEFD-B412C8FDC748}"/>
+    <cellStyle name="Normal 2 2" xfId="5" xr:uid="{BC099CA7-6D03-434C-8E83-ADEB2015BFA1}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{CBB49F7E-8B03-48DF-B510-7F98BB2FEC48}"/>
     <cellStyle name="Note 2" xfId="1" xr:uid="{4EEECABB-1664-4A92-99FC-4ED2379D892F}"/>
+    <cellStyle name="Siêu kết nối" xfId="3" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1850,9 +3075,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Chủ đề Office 2013 – 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1890,7 +3115,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1996,7 +3221,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2138,7 +3363,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2153,7 +3378,7 @@
       <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <sheetData/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="1.1811023622047245" right="0.78740157480314965" top="0.78740157480314965" bottom="0.78740157480314965" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -2171,179 +3396,179 @@
       <selection sqref="A1:H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.5" customHeight="1">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:8" ht="15.45" customHeight="1">
+      <c r="A1" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-    </row>
-    <row r="2" spans="1:8" ht="13.25" customHeight="1">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+    </row>
+    <row r="2" spans="1:8" ht="13.2" customHeight="1">
+      <c r="A2" s="57"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="26"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
+      <c r="A3" s="57"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="26"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
+      <c r="A4" s="57"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="26"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
+      <c r="A5" s="57"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="26"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
+      <c r="A6" s="57"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="26"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
+      <c r="A7" s="57"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="26"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
+      <c r="A8" s="57"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="26"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
+      <c r="A9" s="57"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="26"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
+      <c r="A10" s="57"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="26"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
+      <c r="A11" s="57"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="26"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
+      <c r="A12" s="57"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="26"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
+      <c r="A13" s="57"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="26"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
+      <c r="A14" s="57"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="26"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
+      <c r="A15" s="57"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="26"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
+      <c r="A16" s="57"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="26"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
+      <c r="A17" s="57"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2363,9 +3588,9 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="4" spans="4:5" ht="17">
+    <row r="4" spans="4:5" ht="17.399999999999999">
       <c r="E4" s="9" t="s">
         <v>28</v>
       </c>
@@ -2432,9 +3657,9 @@
       <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="16384" width="8.83203125" style="12"/>
+    <col min="1" max="16384" width="8.77734375" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21">
@@ -2442,219 +3667,219 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16.75" customHeight="1">
+    <row r="2" spans="1:8" ht="16.8" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.5" customHeight="1">
-      <c r="A3" s="27" t="s">
+    <row r="3" spans="1:8" ht="15.45" customHeight="1">
+      <c r="A3" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="27"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
+      <c r="A4" s="58"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="27"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
+      <c r="A5" s="58"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="27"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
+      <c r="A6" s="58"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="27"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
+      <c r="A7" s="58"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="27"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
+      <c r="A8" s="58"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="27"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
+      <c r="A9" s="58"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
     </row>
     <row r="10" spans="1:8" ht="57" customHeight="1">
-      <c r="A10" s="27"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
+      <c r="A10" s="58"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="27"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-    </row>
-    <row r="13" spans="1:8" ht="17">
+      <c r="A11" s="58"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58"/>
+    </row>
+    <row r="13" spans="1:8" ht="17.399999999999999">
       <c r="A13" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="13.75" customHeight="1">
-      <c r="A14" s="27" t="s">
+    <row r="14" spans="1:8" ht="13.8" customHeight="1">
+      <c r="A14" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-    </row>
-    <row r="15" spans="1:8" ht="13.75" customHeight="1">
-      <c r="A15" s="27"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-    </row>
-    <row r="16" spans="1:8" ht="13.75" customHeight="1">
-      <c r="A16" s="27"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-    </row>
-    <row r="17" spans="1:8" ht="13.75" customHeight="1">
-      <c r="A17" s="27"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-    </row>
-    <row r="18" spans="1:8" ht="13.75" customHeight="1">
-      <c r="A18" s="27"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-    </row>
-    <row r="19" spans="1:8" ht="13.75" customHeight="1">
-      <c r="A19" s="27"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-    </row>
-    <row r="20" spans="1:8" ht="13.75" customHeight="1">
-      <c r="A20" s="27"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-    </row>
-    <row r="21" spans="1:8" ht="13.75" customHeight="1">
-      <c r="A21" s="27"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-    </row>
-    <row r="22" spans="1:8" ht="13.75" customHeight="1">
-      <c r="A22" s="27"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-    </row>
-    <row r="23" spans="1:8" ht="13.75" customHeight="1">
-      <c r="A23" s="27"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-    </row>
-    <row r="24" spans="1:8" ht="41" customHeight="1">
-      <c r="A24" s="27"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="58"/>
+    </row>
+    <row r="15" spans="1:8" ht="13.8" customHeight="1">
+      <c r="A15" s="58"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
+    </row>
+    <row r="16" spans="1:8" ht="13.8" customHeight="1">
+      <c r="A16" s="58"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+    </row>
+    <row r="17" spans="1:8" ht="13.8" customHeight="1">
+      <c r="A17" s="58"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
+    </row>
+    <row r="18" spans="1:8" ht="13.8" customHeight="1">
+      <c r="A18" s="58"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="58"/>
+    </row>
+    <row r="19" spans="1:8" ht="13.8" customHeight="1">
+      <c r="A19" s="58"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="58"/>
+    </row>
+    <row r="20" spans="1:8" ht="13.8" customHeight="1">
+      <c r="A20" s="58"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="58"/>
+    </row>
+    <row r="21" spans="1:8" ht="13.8" customHeight="1">
+      <c r="A21" s="58"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="58"/>
+    </row>
+    <row r="22" spans="1:8" ht="13.8" customHeight="1">
+      <c r="A22" s="58"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="58"/>
+    </row>
+    <row r="23" spans="1:8" ht="13.8" customHeight="1">
+      <c r="A23" s="58"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="58"/>
+    </row>
+    <row r="24" spans="1:8" ht="40.950000000000003" customHeight="1">
+      <c r="A24" s="58"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="58"/>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1"/>
@@ -2666,74 +3891,74 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8" ht="17">
+    <row r="26" spans="1:8" ht="17.399999999999999">
       <c r="A26" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="13.75" customHeight="1">
-      <c r="A27" s="28" t="s">
+    <row r="27" spans="1:8" ht="13.8" customHeight="1">
+      <c r="A27" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-    </row>
-    <row r="28" spans="1:8" ht="13.75" customHeight="1">
-      <c r="A28" s="28"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-    </row>
-    <row r="29" spans="1:8" ht="13.75" customHeight="1">
-      <c r="A29" s="28"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-    </row>
-    <row r="30" spans="1:8" ht="13.75" customHeight="1">
-      <c r="A30" s="28"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-    </row>
-    <row r="31" spans="1:8" ht="13.75" customHeight="1">
-      <c r="A31" s="28"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-    </row>
-    <row r="32" spans="1:8" ht="13.75" customHeight="1">
-      <c r="A32" s="28"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-    </row>
-    <row r="33" spans="1:8" ht="13.75" customHeight="1">
+      <c r="B27" s="59"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="59"/>
+    </row>
+    <row r="28" spans="1:8" ht="13.8" customHeight="1">
+      <c r="A28" s="59"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="59"/>
+    </row>
+    <row r="29" spans="1:8" ht="13.8" customHeight="1">
+      <c r="A29" s="59"/>
+      <c r="B29" s="59"/>
+      <c r="C29" s="59"/>
+      <c r="D29" s="59"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="59"/>
+      <c r="G29" s="59"/>
+      <c r="H29" s="59"/>
+    </row>
+    <row r="30" spans="1:8" ht="13.8" customHeight="1">
+      <c r="A30" s="59"/>
+      <c r="B30" s="59"/>
+      <c r="C30" s="59"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="59"/>
+      <c r="H30" s="59"/>
+    </row>
+    <row r="31" spans="1:8" ht="13.8" customHeight="1">
+      <c r="A31" s="59"/>
+      <c r="B31" s="59"/>
+      <c r="C31" s="59"/>
+      <c r="D31" s="59"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="59"/>
+      <c r="H31" s="59"/>
+    </row>
+    <row r="32" spans="1:8" ht="13.8" customHeight="1">
+      <c r="A32" s="59"/>
+      <c r="B32" s="59"/>
+      <c r="C32" s="59"/>
+      <c r="D32" s="59"/>
+      <c r="E32" s="59"/>
+      <c r="F32" s="59"/>
+      <c r="G32" s="59"/>
+      <c r="H32" s="59"/>
+    </row>
+    <row r="33" spans="1:8" ht="13.8" customHeight="1">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -2743,7 +3968,7 @@
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
     </row>
-    <row r="34" spans="1:8" ht="13.75" customHeight="1">
+    <row r="34" spans="1:8" ht="13.8" customHeight="1">
       <c r="A34" s="6" t="s">
         <v>6</v>
       </c>
@@ -2755,157 +3980,157 @@
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
     </row>
-    <row r="35" spans="1:8" ht="13.75" customHeight="1">
-      <c r="A35" s="29" t="s">
+    <row r="35" spans="1:8" ht="13.8" customHeight="1">
+      <c r="A35" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="B35" s="29"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="29"/>
+      <c r="B35" s="60"/>
+      <c r="C35" s="60"/>
+      <c r="D35" s="60"/>
+      <c r="E35" s="60"/>
+      <c r="F35" s="60"/>
+      <c r="G35" s="60"/>
+      <c r="H35" s="60"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="29"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="29"/>
+      <c r="A36" s="60"/>
+      <c r="B36" s="60"/>
+      <c r="C36" s="60"/>
+      <c r="D36" s="60"/>
+      <c r="E36" s="60"/>
+      <c r="F36" s="60"/>
+      <c r="G36" s="60"/>
+      <c r="H36" s="60"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="29"/>
-      <c r="B37" s="29"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="29"/>
-      <c r="H37" s="29"/>
-    </row>
-    <row r="38" spans="1:8" ht="13.75" customHeight="1">
-      <c r="A38" s="29"/>
-      <c r="B38" s="29"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="29"/>
-      <c r="H38" s="29"/>
+      <c r="A37" s="60"/>
+      <c r="B37" s="60"/>
+      <c r="C37" s="60"/>
+      <c r="D37" s="60"/>
+      <c r="E37" s="60"/>
+      <c r="F37" s="60"/>
+      <c r="G37" s="60"/>
+      <c r="H37" s="60"/>
+    </row>
+    <row r="38" spans="1:8" ht="13.8" customHeight="1">
+      <c r="A38" s="60"/>
+      <c r="B38" s="60"/>
+      <c r="C38" s="60"/>
+      <c r="D38" s="60"/>
+      <c r="E38" s="60"/>
+      <c r="F38" s="60"/>
+      <c r="G38" s="60"/>
+      <c r="H38" s="60"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="29"/>
-      <c r="B39" s="29"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="29"/>
-      <c r="G39" s="29"/>
-      <c r="H39" s="29"/>
+      <c r="A39" s="60"/>
+      <c r="B39" s="60"/>
+      <c r="C39" s="60"/>
+      <c r="D39" s="60"/>
+      <c r="E39" s="60"/>
+      <c r="F39" s="60"/>
+      <c r="G39" s="60"/>
+      <c r="H39" s="60"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="29"/>
-      <c r="B40" s="29"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="29"/>
-      <c r="F40" s="29"/>
-      <c r="G40" s="29"/>
-      <c r="H40" s="29"/>
+      <c r="A40" s="60"/>
+      <c r="B40" s="60"/>
+      <c r="C40" s="60"/>
+      <c r="D40" s="60"/>
+      <c r="E40" s="60"/>
+      <c r="F40" s="60"/>
+      <c r="G40" s="60"/>
+      <c r="H40" s="60"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="29"/>
-      <c r="B41" s="29"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="29"/>
-      <c r="G41" s="29"/>
-      <c r="H41" s="29"/>
+      <c r="A41" s="60"/>
+      <c r="B41" s="60"/>
+      <c r="C41" s="60"/>
+      <c r="D41" s="60"/>
+      <c r="E41" s="60"/>
+      <c r="F41" s="60"/>
+      <c r="G41" s="60"/>
+      <c r="H41" s="60"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="29"/>
-      <c r="B42" s="29"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="29"/>
-      <c r="G42" s="29"/>
-      <c r="H42" s="29"/>
+      <c r="A42" s="60"/>
+      <c r="B42" s="60"/>
+      <c r="C42" s="60"/>
+      <c r="D42" s="60"/>
+      <c r="E42" s="60"/>
+      <c r="F42" s="60"/>
+      <c r="G42" s="60"/>
+      <c r="H42" s="60"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="29"/>
-      <c r="B43" s="29"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="29"/>
-      <c r="H43" s="29"/>
+      <c r="A43" s="60"/>
+      <c r="B43" s="60"/>
+      <c r="C43" s="60"/>
+      <c r="D43" s="60"/>
+      <c r="E43" s="60"/>
+      <c r="F43" s="60"/>
+      <c r="G43" s="60"/>
+      <c r="H43" s="60"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="29"/>
-      <c r="B44" s="29"/>
-      <c r="C44" s="29"/>
-      <c r="D44" s="29"/>
-      <c r="E44" s="29"/>
-      <c r="F44" s="29"/>
-      <c r="G44" s="29"/>
-      <c r="H44" s="29"/>
+      <c r="A44" s="60"/>
+      <c r="B44" s="60"/>
+      <c r="C44" s="60"/>
+      <c r="D44" s="60"/>
+      <c r="E44" s="60"/>
+      <c r="F44" s="60"/>
+      <c r="G44" s="60"/>
+      <c r="H44" s="60"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="29"/>
-      <c r="B45" s="29"/>
-      <c r="C45" s="29"/>
-      <c r="D45" s="29"/>
-      <c r="E45" s="29"/>
-      <c r="F45" s="29"/>
-      <c r="G45" s="29"/>
-      <c r="H45" s="29"/>
+      <c r="A45" s="60"/>
+      <c r="B45" s="60"/>
+      <c r="C45" s="60"/>
+      <c r="D45" s="60"/>
+      <c r="E45" s="60"/>
+      <c r="F45" s="60"/>
+      <c r="G45" s="60"/>
+      <c r="H45" s="60"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="29"/>
-      <c r="B46" s="29"/>
-      <c r="C46" s="29"/>
-      <c r="D46" s="29"/>
-      <c r="E46" s="29"/>
-      <c r="F46" s="29"/>
-      <c r="G46" s="29"/>
-      <c r="H46" s="29"/>
+      <c r="A46" s="60"/>
+      <c r="B46" s="60"/>
+      <c r="C46" s="60"/>
+      <c r="D46" s="60"/>
+      <c r="E46" s="60"/>
+      <c r="F46" s="60"/>
+      <c r="G46" s="60"/>
+      <c r="H46" s="60"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="29"/>
-      <c r="B47" s="29"/>
-      <c r="C47" s="29"/>
-      <c r="D47" s="29"/>
-      <c r="E47" s="29"/>
-      <c r="F47" s="29"/>
-      <c r="G47" s="29"/>
-      <c r="H47" s="29"/>
+      <c r="A47" s="60"/>
+      <c r="B47" s="60"/>
+      <c r="C47" s="60"/>
+      <c r="D47" s="60"/>
+      <c r="E47" s="60"/>
+      <c r="F47" s="60"/>
+      <c r="G47" s="60"/>
+      <c r="H47" s="60"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="29"/>
-      <c r="B48" s="29"/>
-      <c r="C48" s="29"/>
-      <c r="D48" s="29"/>
-      <c r="E48" s="29"/>
-      <c r="F48" s="29"/>
-      <c r="G48" s="29"/>
-      <c r="H48" s="29"/>
+      <c r="A48" s="60"/>
+      <c r="B48" s="60"/>
+      <c r="C48" s="60"/>
+      <c r="D48" s="60"/>
+      <c r="E48" s="60"/>
+      <c r="F48" s="60"/>
+      <c r="G48" s="60"/>
+      <c r="H48" s="60"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="29"/>
-      <c r="B49" s="29"/>
-      <c r="C49" s="29"/>
-      <c r="D49" s="29"/>
-      <c r="E49" s="29"/>
-      <c r="F49" s="29"/>
-      <c r="G49" s="29"/>
-      <c r="H49" s="29"/>
+      <c r="A49" s="60"/>
+      <c r="B49" s="60"/>
+      <c r="C49" s="60"/>
+      <c r="D49" s="60"/>
+      <c r="E49" s="60"/>
+      <c r="F49" s="60"/>
+      <c r="G49" s="60"/>
+      <c r="H49" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2929,9 +4154,9 @@
       <selection activeCell="A36" sqref="A36:H52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="16384" width="8.83203125" style="4"/>
+    <col min="1" max="16384" width="8.77734375" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21">
@@ -2939,166 +4164,166 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16.75" customHeight="1">
+    <row r="2" spans="1:8" ht="16.8" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.5" customHeight="1">
-      <c r="A3" s="44" t="s">
+    <row r="3" spans="1:8" ht="15.45" customHeight="1">
+      <c r="A3" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="44"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
+      <c r="A4" s="61"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="44"/>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
+      <c r="A5" s="61"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="44"/>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
+      <c r="A6" s="61"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="44"/>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
+      <c r="A7" s="61"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="44"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
+      <c r="A8" s="61"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="44"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
+      <c r="A9" s="61"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="44"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
+      <c r="A10" s="61"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="61"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="44"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-    </row>
-    <row r="13" spans="1:8" ht="17">
+      <c r="A11" s="61"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="61"/>
+    </row>
+    <row r="13" spans="1:8" ht="17.399999999999999">
       <c r="A13" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="16">
+    <row r="14" spans="1:8" ht="15.6">
       <c r="A14" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="13.75" customHeight="1">
-      <c r="A15" s="45" t="s">
+    <row r="15" spans="1:8" ht="13.8" customHeight="1">
+      <c r="A15" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
-    </row>
-    <row r="16" spans="1:8" ht="13.75" customHeight="1">
-      <c r="A16" s="45"/>
-      <c r="B16" s="45"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-    </row>
-    <row r="17" spans="1:8" ht="13.75" customHeight="1">
-      <c r="A17" s="45"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="45"/>
-    </row>
-    <row r="18" spans="1:8" ht="13.75" customHeight="1">
-      <c r="A18" s="45"/>
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
-    </row>
-    <row r="19" spans="1:8" ht="13.75" customHeight="1">
-      <c r="A19" s="45"/>
-      <c r="B19" s="45"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="45"/>
-    </row>
-    <row r="20" spans="1:8" ht="13.75" customHeight="1">
+      <c r="B15" s="62"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="62"/>
+    </row>
+    <row r="16" spans="1:8" ht="13.8" customHeight="1">
+      <c r="A16" s="62"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
+    </row>
+    <row r="17" spans="1:8" ht="13.8" customHeight="1">
+      <c r="A17" s="62"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="62"/>
+    </row>
+    <row r="18" spans="1:8" ht="13.8" customHeight="1">
+      <c r="A18" s="62"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="62"/>
+    </row>
+    <row r="19" spans="1:8" ht="13.8" customHeight="1">
+      <c r="A19" s="62"/>
+      <c r="B19" s="62"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="62"/>
+    </row>
+    <row r="20" spans="1:8" ht="13.8" customHeight="1">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -3108,7 +4333,7 @@
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" ht="13.75" customHeight="1">
+    <row r="21" spans="1:8" ht="13.8" customHeight="1">
       <c r="A21" s="10" t="s">
         <v>10</v>
       </c>
@@ -3120,137 +4345,137 @@
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="1:8" ht="13.75" customHeight="1">
-      <c r="A22" s="30" t="s">
+    <row r="22" spans="1:8" ht="13.8" customHeight="1">
+      <c r="A22" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-    </row>
-    <row r="23" spans="1:8" ht="13.75" customHeight="1">
-      <c r="A23" s="28"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-    </row>
-    <row r="24" spans="1:8" ht="13.75" customHeight="1">
-      <c r="A24" s="28"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
+      <c r="B22" s="59"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="59"/>
+      <c r="H22" s="59"/>
+    </row>
+    <row r="23" spans="1:8" ht="13.8" customHeight="1">
+      <c r="A23" s="59"/>
+      <c r="B23" s="59"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="59"/>
+    </row>
+    <row r="24" spans="1:8" ht="13.8" customHeight="1">
+      <c r="A24" s="59"/>
+      <c r="B24" s="59"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="59"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="28"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
+      <c r="A25" s="59"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="59"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="28"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-    </row>
-    <row r="27" spans="1:8" ht="17.5" customHeight="1">
-      <c r="A27" s="28"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
+      <c r="A26" s="59"/>
+      <c r="B26" s="59"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="59"/>
+    </row>
+    <row r="27" spans="1:8" ht="17.55" customHeight="1">
+      <c r="A27" s="59"/>
+      <c r="B27" s="59"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="59"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="28"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
+      <c r="A28" s="59"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="59"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="28"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
+      <c r="A29" s="59"/>
+      <c r="B29" s="59"/>
+      <c r="C29" s="59"/>
+      <c r="D29" s="59"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="59"/>
+      <c r="G29" s="59"/>
+      <c r="H29" s="59"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="28"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
+      <c r="A30" s="59"/>
+      <c r="B30" s="59"/>
+      <c r="C30" s="59"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="59"/>
+      <c r="H30" s="59"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="28"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
+      <c r="A31" s="59"/>
+      <c r="B31" s="59"/>
+      <c r="C31" s="59"/>
+      <c r="D31" s="59"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="59"/>
+      <c r="H31" s="59"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="28"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
+      <c r="A32" s="59"/>
+      <c r="B32" s="59"/>
+      <c r="C32" s="59"/>
+      <c r="D32" s="59"/>
+      <c r="E32" s="59"/>
+      <c r="F32" s="59"/>
+      <c r="G32" s="59"/>
+      <c r="H32" s="59"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="28"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
+      <c r="A33" s="59"/>
+      <c r="B33" s="59"/>
+      <c r="C33" s="59"/>
+      <c r="D33" s="59"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="59"/>
+      <c r="H33" s="59"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="28"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
+      <c r="A34" s="59"/>
+      <c r="B34" s="59"/>
+      <c r="C34" s="59"/>
+      <c r="D34" s="59"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="59"/>
+      <c r="G34" s="59"/>
+      <c r="H34" s="59"/>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="10" t="s">
@@ -3264,177 +4489,177 @@
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
     </row>
-    <row r="36" spans="1:8" ht="15.5" customHeight="1">
-      <c r="A36" s="27" t="s">
+    <row r="36" spans="1:8" ht="15.45" customHeight="1">
+      <c r="A36" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="27"/>
+      <c r="B36" s="58"/>
+      <c r="C36" s="58"/>
+      <c r="D36" s="58"/>
+      <c r="E36" s="58"/>
+      <c r="F36" s="58"/>
+      <c r="G36" s="58"/>
+      <c r="H36" s="58"/>
     </row>
     <row r="37" spans="1:8" ht="15" customHeight="1">
-      <c r="A37" s="27"/>
-      <c r="B37" s="27"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="27"/>
-    </row>
-    <row r="38" spans="1:8" ht="17.5" customHeight="1">
-      <c r="A38" s="27"/>
-      <c r="B38" s="27"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="27"/>
-    </row>
-    <row r="39" spans="1:8" ht="14.5" customHeight="1">
-      <c r="A39" s="27"/>
-      <c r="B39" s="27"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="27"/>
+      <c r="A37" s="58"/>
+      <c r="B37" s="58"/>
+      <c r="C37" s="58"/>
+      <c r="D37" s="58"/>
+      <c r="E37" s="58"/>
+      <c r="F37" s="58"/>
+      <c r="G37" s="58"/>
+      <c r="H37" s="58"/>
+    </row>
+    <row r="38" spans="1:8" ht="17.55" customHeight="1">
+      <c r="A38" s="58"/>
+      <c r="B38" s="58"/>
+      <c r="C38" s="58"/>
+      <c r="D38" s="58"/>
+      <c r="E38" s="58"/>
+      <c r="F38" s="58"/>
+      <c r="G38" s="58"/>
+      <c r="H38" s="58"/>
+    </row>
+    <row r="39" spans="1:8" ht="14.55" customHeight="1">
+      <c r="A39" s="58"/>
+      <c r="B39" s="58"/>
+      <c r="C39" s="58"/>
+      <c r="D39" s="58"/>
+      <c r="E39" s="58"/>
+      <c r="F39" s="58"/>
+      <c r="G39" s="58"/>
+      <c r="H39" s="58"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="27"/>
-      <c r="B40" s="27"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="27"/>
+      <c r="A40" s="58"/>
+      <c r="B40" s="58"/>
+      <c r="C40" s="58"/>
+      <c r="D40" s="58"/>
+      <c r="E40" s="58"/>
+      <c r="F40" s="58"/>
+      <c r="G40" s="58"/>
+      <c r="H40" s="58"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="27"/>
-      <c r="B41" s="27"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="27"/>
+      <c r="A41" s="58"/>
+      <c r="B41" s="58"/>
+      <c r="C41" s="58"/>
+      <c r="D41" s="58"/>
+      <c r="E41" s="58"/>
+      <c r="F41" s="58"/>
+      <c r="G41" s="58"/>
+      <c r="H41" s="58"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="27"/>
-      <c r="B42" s="27"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="27"/>
+      <c r="A42" s="58"/>
+      <c r="B42" s="58"/>
+      <c r="C42" s="58"/>
+      <c r="D42" s="58"/>
+      <c r="E42" s="58"/>
+      <c r="F42" s="58"/>
+      <c r="G42" s="58"/>
+      <c r="H42" s="58"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="27"/>
-      <c r="B43" s="27"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="27"/>
+      <c r="A43" s="58"/>
+      <c r="B43" s="58"/>
+      <c r="C43" s="58"/>
+      <c r="D43" s="58"/>
+      <c r="E43" s="58"/>
+      <c r="F43" s="58"/>
+      <c r="G43" s="58"/>
+      <c r="H43" s="58"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="27"/>
-      <c r="B44" s="27"/>
-      <c r="C44" s="27"/>
-      <c r="D44" s="27"/>
-      <c r="E44" s="27"/>
-      <c r="F44" s="27"/>
-      <c r="G44" s="27"/>
-      <c r="H44" s="27"/>
+      <c r="A44" s="58"/>
+      <c r="B44" s="58"/>
+      <c r="C44" s="58"/>
+      <c r="D44" s="58"/>
+      <c r="E44" s="58"/>
+      <c r="F44" s="58"/>
+      <c r="G44" s="58"/>
+      <c r="H44" s="58"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="27"/>
-      <c r="B45" s="27"/>
-      <c r="C45" s="27"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="27"/>
-      <c r="G45" s="27"/>
-      <c r="H45" s="27"/>
+      <c r="A45" s="58"/>
+      <c r="B45" s="58"/>
+      <c r="C45" s="58"/>
+      <c r="D45" s="58"/>
+      <c r="E45" s="58"/>
+      <c r="F45" s="58"/>
+      <c r="G45" s="58"/>
+      <c r="H45" s="58"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="27"/>
-      <c r="B46" s="27"/>
-      <c r="C46" s="27"/>
-      <c r="D46" s="27"/>
-      <c r="E46" s="27"/>
-      <c r="F46" s="27"/>
-      <c r="G46" s="27"/>
-      <c r="H46" s="27"/>
+      <c r="A46" s="58"/>
+      <c r="B46" s="58"/>
+      <c r="C46" s="58"/>
+      <c r="D46" s="58"/>
+      <c r="E46" s="58"/>
+      <c r="F46" s="58"/>
+      <c r="G46" s="58"/>
+      <c r="H46" s="58"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="27"/>
-      <c r="B47" s="27"/>
-      <c r="C47" s="27"/>
-      <c r="D47" s="27"/>
-      <c r="E47" s="27"/>
-      <c r="F47" s="27"/>
-      <c r="G47" s="27"/>
-      <c r="H47" s="27"/>
+      <c r="A47" s="58"/>
+      <c r="B47" s="58"/>
+      <c r="C47" s="58"/>
+      <c r="D47" s="58"/>
+      <c r="E47" s="58"/>
+      <c r="F47" s="58"/>
+      <c r="G47" s="58"/>
+      <c r="H47" s="58"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="27"/>
-      <c r="B48" s="27"/>
-      <c r="C48" s="27"/>
-      <c r="D48" s="27"/>
-      <c r="E48" s="27"/>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
-      <c r="H48" s="27"/>
+      <c r="A48" s="58"/>
+      <c r="B48" s="58"/>
+      <c r="C48" s="58"/>
+      <c r="D48" s="58"/>
+      <c r="E48" s="58"/>
+      <c r="F48" s="58"/>
+      <c r="G48" s="58"/>
+      <c r="H48" s="58"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="27"/>
-      <c r="B49" s="27"/>
-      <c r="C49" s="27"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="27"/>
-      <c r="F49" s="27"/>
-      <c r="G49" s="27"/>
-      <c r="H49" s="27"/>
+      <c r="A49" s="58"/>
+      <c r="B49" s="58"/>
+      <c r="C49" s="58"/>
+      <c r="D49" s="58"/>
+      <c r="E49" s="58"/>
+      <c r="F49" s="58"/>
+      <c r="G49" s="58"/>
+      <c r="H49" s="58"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="27"/>
-      <c r="B50" s="27"/>
-      <c r="C50" s="27"/>
-      <c r="D50" s="27"/>
-      <c r="E50" s="27"/>
-      <c r="F50" s="27"/>
-      <c r="G50" s="27"/>
-      <c r="H50" s="27"/>
+      <c r="A50" s="58"/>
+      <c r="B50" s="58"/>
+      <c r="C50" s="58"/>
+      <c r="D50" s="58"/>
+      <c r="E50" s="58"/>
+      <c r="F50" s="58"/>
+      <c r="G50" s="58"/>
+      <c r="H50" s="58"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="27"/>
-      <c r="B51" s="27"/>
-      <c r="C51" s="27"/>
-      <c r="D51" s="27"/>
-      <c r="E51" s="27"/>
-      <c r="F51" s="27"/>
-      <c r="G51" s="27"/>
-      <c r="H51" s="27"/>
+      <c r="A51" s="58"/>
+      <c r="B51" s="58"/>
+      <c r="C51" s="58"/>
+      <c r="D51" s="58"/>
+      <c r="E51" s="58"/>
+      <c r="F51" s="58"/>
+      <c r="G51" s="58"/>
+      <c r="H51" s="58"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="27"/>
-      <c r="B52" s="27"/>
-      <c r="C52" s="27"/>
-      <c r="D52" s="27"/>
-      <c r="E52" s="27"/>
-      <c r="F52" s="27"/>
-      <c r="G52" s="27"/>
-      <c r="H52" s="27"/>
+      <c r="A52" s="58"/>
+      <c r="B52" s="58"/>
+      <c r="C52" s="58"/>
+      <c r="D52" s="58"/>
+      <c r="E52" s="58"/>
+      <c r="F52" s="58"/>
+      <c r="G52" s="58"/>
+      <c r="H52" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3457,406 +4682,406 @@
       <selection activeCell="A2" sqref="A2:H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="17">
+    <row r="1" spans="1:8" ht="17.399999999999999">
       <c r="A1" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
+      <c r="A3" s="64"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="31"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
+      <c r="A4" s="64"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="31"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
+      <c r="A5" s="64"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="31"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
+      <c r="A6" s="64"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="31"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
+      <c r="A7" s="64"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="31"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
+      <c r="A8" s="64"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="31"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
+      <c r="A9" s="64"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="31"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
+      <c r="A10" s="64"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="64"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="31"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
+      <c r="A11" s="64"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="31"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
+      <c r="A12" s="64"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="31"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
+      <c r="A13" s="64"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="64"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="31"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
+      <c r="A14" s="64"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="31"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
+      <c r="A15" s="64"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="31"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
+      <c r="A16" s="64"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="64"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="31"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
+      <c r="A17" s="64"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="64"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="31"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
+      <c r="A18" s="64"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="64"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="31"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
+      <c r="A19" s="64"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="64"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="31"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
+      <c r="A20" s="64"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="64"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="32" t="s">
+      <c r="A21" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="65"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="32"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
+      <c r="A22" s="65"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="65"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="32"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
+      <c r="A23" s="65"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="65"/>
+      <c r="H23" s="65"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="32"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
+      <c r="A24" s="65"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="65"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="32"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
+      <c r="A25" s="65"/>
+      <c r="B25" s="65"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="65"/>
+      <c r="H25" s="65"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="32"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
+      <c r="A26" s="65"/>
+      <c r="B26" s="65"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="65"/>
+      <c r="H26" s="65"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="32"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
+      <c r="A27" s="65"/>
+      <c r="B27" s="65"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="65"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="32"/>
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
+      <c r="A28" s="65"/>
+      <c r="B28" s="65"/>
+      <c r="C28" s="65"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="65"/>
+      <c r="H28" s="65"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="32"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="32"/>
+      <c r="A29" s="65"/>
+      <c r="B29" s="65"/>
+      <c r="C29" s="65"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="65"/>
+      <c r="F29" s="65"/>
+      <c r="G29" s="65"/>
+      <c r="H29" s="65"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="32"/>
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="32"/>
+      <c r="A30" s="65"/>
+      <c r="B30" s="65"/>
+      <c r="C30" s="65"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="65"/>
+      <c r="F30" s="65"/>
+      <c r="G30" s="65"/>
+      <c r="H30" s="65"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="32"/>
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32"/>
+      <c r="A31" s="65"/>
+      <c r="B31" s="65"/>
+      <c r="C31" s="65"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="65"/>
+      <c r="F31" s="65"/>
+      <c r="G31" s="65"/>
+      <c r="H31" s="65"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="32"/>
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="32"/>
+      <c r="A32" s="65"/>
+      <c r="B32" s="65"/>
+      <c r="C32" s="65"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="65"/>
+      <c r="F32" s="65"/>
+      <c r="G32" s="65"/>
+      <c r="H32" s="65"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="32"/>
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="32"/>
+      <c r="A33" s="65"/>
+      <c r="B33" s="65"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="65"/>
+      <c r="E33" s="65"/>
+      <c r="F33" s="65"/>
+      <c r="G33" s="65"/>
+      <c r="H33" s="65"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="32"/>
-      <c r="B34" s="32"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="32"/>
+      <c r="A34" s="65"/>
+      <c r="B34" s="65"/>
+      <c r="C34" s="65"/>
+      <c r="D34" s="65"/>
+      <c r="E34" s="65"/>
+      <c r="F34" s="65"/>
+      <c r="G34" s="65"/>
+      <c r="H34" s="65"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="32"/>
-      <c r="B35" s="32"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="32"/>
+      <c r="A35" s="65"/>
+      <c r="B35" s="65"/>
+      <c r="C35" s="65"/>
+      <c r="D35" s="65"/>
+      <c r="E35" s="65"/>
+      <c r="F35" s="65"/>
+      <c r="G35" s="65"/>
+      <c r="H35" s="65"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="32"/>
-      <c r="B36" s="32"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="32"/>
+      <c r="A36" s="65"/>
+      <c r="B36" s="65"/>
+      <c r="C36" s="65"/>
+      <c r="D36" s="65"/>
+      <c r="E36" s="65"/>
+      <c r="F36" s="65"/>
+      <c r="G36" s="65"/>
+      <c r="H36" s="65"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="32"/>
-      <c r="B37" s="32"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="32"/>
-      <c r="H37" s="32"/>
+      <c r="A37" s="65"/>
+      <c r="B37" s="65"/>
+      <c r="C37" s="65"/>
+      <c r="D37" s="65"/>
+      <c r="E37" s="65"/>
+      <c r="F37" s="65"/>
+      <c r="G37" s="65"/>
+      <c r="H37" s="65"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="32"/>
-      <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32"/>
-      <c r="G38" s="32"/>
-      <c r="H38" s="32"/>
+      <c r="A38" s="65"/>
+      <c r="B38" s="65"/>
+      <c r="C38" s="65"/>
+      <c r="D38" s="65"/>
+      <c r="E38" s="65"/>
+      <c r="F38" s="65"/>
+      <c r="G38" s="65"/>
+      <c r="H38" s="65"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="32"/>
-      <c r="B39" s="32"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="32"/>
-      <c r="G39" s="32"/>
-      <c r="H39" s="32"/>
+      <c r="A39" s="65"/>
+      <c r="B39" s="65"/>
+      <c r="C39" s="65"/>
+      <c r="D39" s="65"/>
+      <c r="E39" s="65"/>
+      <c r="F39" s="65"/>
+      <c r="G39" s="65"/>
+      <c r="H39" s="65"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="32"/>
-      <c r="B40" s="32"/>
-      <c r="C40" s="32"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="32"/>
-      <c r="G40" s="32"/>
-      <c r="H40" s="32"/>
+      <c r="A40" s="65"/>
+      <c r="B40" s="65"/>
+      <c r="C40" s="65"/>
+      <c r="D40" s="65"/>
+      <c r="E40" s="65"/>
+      <c r="F40" s="65"/>
+      <c r="G40" s="65"/>
+      <c r="H40" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3870,55 +5095,68 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8917CA0A-EA61-4F09-84F9-F925FF2C64CE}">
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:J82"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScale="143" zoomScaleNormal="100" zoomScalePageLayoutView="143" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:G34"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A71" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="8.1640625" customWidth="1"/>
-    <col min="2" max="2" width="23.83203125" customWidth="1"/>
-    <col min="4" max="6" width="8.83203125" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" customWidth="1"/>
-    <col min="8" max="9" width="8.83203125" customWidth="1"/>
+    <col min="1" max="1" width="8.21875" customWidth="1"/>
+    <col min="2" max="2" width="23.77734375" customWidth="1"/>
+    <col min="5" max="5" width="8.77734375" customWidth="1"/>
+    <col min="6" max="6" width="30.6640625" customWidth="1"/>
+    <col min="7" max="7" width="8.77734375" customWidth="1"/>
+    <col min="8" max="8" width="25.109375" customWidth="1"/>
+    <col min="9" max="10" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17">
+    <row r="1" spans="1:10" ht="17.399999999999999">
       <c r="A1" s="9" t="s">
         <v>23</v>
       </c>
       <c r="B1" s="9"/>
     </row>
-    <row r="2" spans="1:9" ht="17">
+    <row r="2" spans="1:10" ht="17.399999999999999">
       <c r="A2" s="9" t="s">
         <v>27</v>
       </c>
       <c r="B2" s="9"/>
     </row>
-    <row r="3" spans="1:9" ht="17">
+    <row r="3" spans="1:10" ht="17.399999999999999">
       <c r="A3" s="18" t="s">
         <v>26</v>
       </c>
       <c r="B3" s="9"/>
     </row>
-    <row r="4" spans="1:9" ht="16">
-      <c r="A4" s="33" t="s">
+    <row r="4" spans="1:10">
+      <c r="A4" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="19" t="s">
+      <c r="B4" s="83"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="E4" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-    </row>
-    <row r="5" spans="1:9" s="16" customFormat="1" ht="32">
+      <c r="F4" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>311</v>
+      </c>
+      <c r="J4" s="19"/>
+    </row>
+    <row r="5" spans="1:10" s="16" customFormat="1" ht="28.8">
       <c r="A5" s="20" t="s">
         <v>18</v>
       </c>
@@ -3928,17 +5166,18 @@
       <c r="C5" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="15">
-        <f>COUNTIF(D6:D1000,"=x")</f>
-        <v>12</v>
-      </c>
-      <c r="E5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15">
+        <f>COUNTIF(E6:E1042,"=x")</f>
+        <v>20</v>
+      </c>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
       <c r="I5" s="15"/>
-    </row>
-    <row r="6" spans="1:9" s="16" customFormat="1" ht="16">
+      <c r="J5" s="15"/>
+    </row>
+    <row r="6" spans="1:10" s="16" customFormat="1">
       <c r="A6" s="20" t="s">
         <v>74</v>
       </c>
@@ -3946,19 +5185,20 @@
         <v>87</v>
       </c>
       <c r="C6" s="15">
-        <f>COUNTIF(D6:R6,"=x")</f>
+        <f>COUNTIF(E6:S6,"=x")</f>
         <v>1</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="15"/>
+      <c r="E6" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="15"/>
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
-    </row>
-    <row r="7" spans="1:9" s="16" customFormat="1" ht="16">
+      <c r="J6" s="15"/>
+    </row>
+    <row r="7" spans="1:10" s="16" customFormat="1">
       <c r="A7" s="20" t="s">
         <v>76</v>
       </c>
@@ -3966,16 +5206,17 @@
         <v>88</v>
       </c>
       <c r="C7" s="15"/>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="15"/>
+      <c r="E7" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="15"/>
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
-    </row>
-    <row r="8" spans="1:9" s="16" customFormat="1" ht="16">
+      <c r="J7" s="15"/>
+    </row>
+    <row r="8" spans="1:10" s="16" customFormat="1">
       <c r="A8" s="20" t="s">
         <v>77</v>
       </c>
@@ -3983,16 +5224,17 @@
         <v>89</v>
       </c>
       <c r="C8" s="15"/>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="15"/>
+      <c r="E8" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="15"/>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
       <c r="I8" s="15"/>
-    </row>
-    <row r="9" spans="1:9" s="16" customFormat="1" ht="16">
+      <c r="J8" s="15"/>
+    </row>
+    <row r="9" spans="1:10" s="16" customFormat="1">
       <c r="A9" s="20" t="s">
         <v>78</v>
       </c>
@@ -4000,16 +5242,17 @@
         <v>90</v>
       </c>
       <c r="C9" s="15"/>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="15"/>
+      <c r="E9" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="15"/>
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
       <c r="I9" s="15"/>
-    </row>
-    <row r="10" spans="1:9" s="16" customFormat="1" ht="16">
+      <c r="J9" s="15"/>
+    </row>
+    <row r="10" spans="1:10" s="16" customFormat="1">
       <c r="A10" s="20" t="s">
         <v>79</v>
       </c>
@@ -4017,16 +5260,17 @@
         <v>91</v>
       </c>
       <c r="C10" s="15"/>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="15"/>
+      <c r="E10" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="15"/>
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
       <c r="H10" s="15"/>
       <c r="I10" s="15"/>
-    </row>
-    <row r="11" spans="1:9" s="16" customFormat="1" ht="16">
+      <c r="J10" s="15"/>
+    </row>
+    <row r="11" spans="1:10" s="16" customFormat="1">
       <c r="A11" s="20" t="s">
         <v>80</v>
       </c>
@@ -4034,16 +5278,17 @@
         <v>92</v>
       </c>
       <c r="C11" s="15"/>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="15"/>
+      <c r="E11" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="15"/>
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
       <c r="H11" s="15"/>
       <c r="I11" s="15"/>
-    </row>
-    <row r="12" spans="1:9" s="16" customFormat="1" ht="16">
+      <c r="J11" s="15"/>
+    </row>
+    <row r="12" spans="1:10" s="16" customFormat="1">
       <c r="A12" s="20" t="s">
         <v>81</v>
       </c>
@@ -4051,16 +5296,17 @@
         <v>93</v>
       </c>
       <c r="C12" s="15"/>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="15"/>
+      <c r="E12" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="15"/>
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
       <c r="H12" s="15"/>
       <c r="I12" s="15"/>
-    </row>
-    <row r="13" spans="1:9" s="16" customFormat="1" ht="16">
+      <c r="J12" s="15"/>
+    </row>
+    <row r="13" spans="1:10" s="16" customFormat="1">
       <c r="A13" s="20" t="s">
         <v>82</v>
       </c>
@@ -4068,16 +5314,17 @@
         <v>94</v>
       </c>
       <c r="C13" s="15"/>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="15"/>
+      <c r="E13" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="15"/>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
       <c r="H13" s="15"/>
       <c r="I13" s="15"/>
-    </row>
-    <row r="14" spans="1:9" s="16" customFormat="1" ht="16">
+      <c r="J13" s="15"/>
+    </row>
+    <row r="14" spans="1:10" s="16" customFormat="1">
       <c r="A14" s="20" t="s">
         <v>83</v>
       </c>
@@ -4085,16 +5332,17 @@
         <v>95</v>
       </c>
       <c r="C14" s="15"/>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="15"/>
+      <c r="E14" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="15"/>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
       <c r="I14" s="15"/>
-    </row>
-    <row r="15" spans="1:9" s="16" customFormat="1" ht="16">
+      <c r="J14" s="15"/>
+    </row>
+    <row r="15" spans="1:10" s="16" customFormat="1">
       <c r="A15" s="20" t="s">
         <v>84</v>
       </c>
@@ -4102,16 +5350,17 @@
         <v>96</v>
       </c>
       <c r="C15" s="15"/>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="15"/>
+      <c r="E15" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="15"/>
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
       <c r="I15" s="15"/>
-    </row>
-    <row r="16" spans="1:9" s="16" customFormat="1" ht="16">
+      <c r="J15" s="15"/>
+    </row>
+    <row r="16" spans="1:10" s="16" customFormat="1">
       <c r="A16" s="20" t="s">
         <v>85</v>
       </c>
@@ -4119,361 +5368,1149 @@
         <v>97</v>
       </c>
       <c r="C16" s="15"/>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="15"/>
+      <c r="E16" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="15"/>
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
       <c r="I16" s="15"/>
-    </row>
-    <row r="17" spans="1:9" s="16" customFormat="1" ht="16">
+      <c r="J16" s="15"/>
+    </row>
+    <row r="17" spans="1:10" s="16" customFormat="1">
       <c r="A17" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15" t="s">
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
+      <c r="F17" s="20"/>
       <c r="G17" s="15"/>
       <c r="H17" s="15"/>
       <c r="I17" s="15"/>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
+      <c r="J17" s="15"/>
+    </row>
+    <row r="18" spans="1:10" s="16" customFormat="1" ht="28.8">
+      <c r="A18" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="C18" s="20">
+        <v>1</v>
+      </c>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20" t="s">
+        <v>16</v>
+      </c>
       <c r="G18" s="15"/>
       <c r="H18" s="15"/>
       <c r="I18" s="15"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
+      <c r="J18" s="15"/>
+    </row>
+    <row r="19" spans="1:10" s="16" customFormat="1">
+      <c r="A19" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="C19" s="20">
+        <v>1</v>
+      </c>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20" t="s">
+        <v>16</v>
+      </c>
       <c r="G19" s="15"/>
       <c r="H19" s="15"/>
       <c r="I19" s="15"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
+      <c r="J19" s="15"/>
+    </row>
+    <row r="20" spans="1:10" s="16" customFormat="1">
+      <c r="A20" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="C20" s="20">
+        <v>1</v>
+      </c>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20" t="s">
+        <v>16</v>
+      </c>
       <c r="G20" s="15"/>
       <c r="H20" s="15"/>
       <c r="I20" s="15"/>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
+      <c r="J20" s="15"/>
+    </row>
+    <row r="21" spans="1:10" s="16" customFormat="1" ht="28.8">
+      <c r="A21" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="C21" s="20">
+        <v>1</v>
+      </c>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20" t="s">
+        <v>16</v>
+      </c>
       <c r="G21" s="15"/>
       <c r="H21" s="15"/>
       <c r="I21" s="15"/>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
+      <c r="J21" s="15"/>
+    </row>
+    <row r="22" spans="1:10" s="16" customFormat="1">
+      <c r="A22" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="C22" s="20">
+        <v>1</v>
+      </c>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20" t="s">
+        <v>16</v>
+      </c>
       <c r="G22" s="15"/>
       <c r="H22" s="15"/>
       <c r="I22" s="15"/>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="17" t="s">
+      <c r="J22" s="15"/>
+    </row>
+    <row r="23" spans="1:10" ht="29.4" thickBot="1">
+      <c r="A23" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="C23" s="20">
+        <v>1</v>
+      </c>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+    </row>
+    <row r="24" spans="1:10" ht="29.4" thickBot="1">
+      <c r="A24" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="B24" s="39" t="s">
+        <v>239</v>
+      </c>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="20"/>
+    </row>
+    <row r="25" spans="1:10" ht="29.4" thickBot="1">
+      <c r="A25" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="B25" s="39" t="s">
+        <v>243</v>
+      </c>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="20"/>
+    </row>
+    <row r="26" spans="1:10" ht="29.4" thickBot="1">
+      <c r="A26" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="B26" s="39" t="s">
+        <v>246</v>
+      </c>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="I26" s="39"/>
+      <c r="J26" s="20"/>
+    </row>
+    <row r="27" spans="1:10" ht="29.4" thickBot="1">
+      <c r="A27" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="B27" s="39" t="s">
+        <v>248</v>
+      </c>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="J27" s="15"/>
+    </row>
+    <row r="28" spans="1:10" ht="29.4" thickBot="1">
+      <c r="A28" s="20" t="s">
+        <v>231</v>
+      </c>
+      <c r="B28" s="39" t="s">
+        <v>251</v>
+      </c>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="15"/>
+    </row>
+    <row r="29" spans="1:10" ht="29.4" thickBot="1">
+      <c r="A29" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="B29" s="39" t="s">
+        <v>254</v>
+      </c>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="15"/>
+    </row>
+    <row r="30" spans="1:10" ht="15" thickBot="1">
+      <c r="A30" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="B30" s="39" t="s">
+        <v>257</v>
+      </c>
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="15"/>
+    </row>
+    <row r="31" spans="1:10" ht="15" thickBot="1">
+      <c r="A31" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="B31" s="39" t="s">
+        <v>261</v>
+      </c>
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="15"/>
+    </row>
+    <row r="32" spans="1:10" ht="15" thickBot="1">
+      <c r="A32" s="20" t="s">
+        <v>280</v>
+      </c>
+      <c r="B32" s="39" t="s">
+        <v>273</v>
+      </c>
+      <c r="C32" s="39">
+        <v>1</v>
+      </c>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="15"/>
+    </row>
+    <row r="33" spans="1:10" ht="15" thickBot="1">
+      <c r="A33" s="20" t="s">
+        <v>281</v>
+      </c>
+      <c r="B33" s="39" t="s">
+        <v>274</v>
+      </c>
+      <c r="C33" s="39">
+        <v>1</v>
+      </c>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="15"/>
+    </row>
+    <row r="34" spans="1:10" ht="15" thickBot="1">
+      <c r="A34" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="B34" s="39" t="s">
+        <v>275</v>
+      </c>
+      <c r="C34" s="39">
+        <v>1</v>
+      </c>
+      <c r="D34" s="39"/>
+      <c r="E34" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="15"/>
+    </row>
+    <row r="35" spans="1:10" ht="15" thickBot="1">
+      <c r="A35" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="B35" s="39" t="s">
+        <v>276</v>
+      </c>
+      <c r="C35" s="39">
+        <v>1</v>
+      </c>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="15"/>
+    </row>
+    <row r="36" spans="1:10" ht="15" thickBot="1">
+      <c r="A36" s="20" t="s">
+        <v>284</v>
+      </c>
+      <c r="B36" s="39" t="s">
+        <v>277</v>
+      </c>
+      <c r="C36" s="39">
+        <v>1</v>
+      </c>
+      <c r="D36" s="39"/>
+      <c r="E36" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="15"/>
+    </row>
+    <row r="37" spans="1:10" ht="15" thickBot="1">
+      <c r="A37" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="B37" s="39" t="s">
+        <v>278</v>
+      </c>
+      <c r="C37" s="39">
+        <v>1</v>
+      </c>
+      <c r="D37" s="39"/>
+      <c r="E37" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="15"/>
+    </row>
+    <row r="38" spans="1:10" ht="15" thickBot="1">
+      <c r="A38" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="B38" s="39" t="s">
+        <v>279</v>
+      </c>
+      <c r="C38" s="39">
+        <v>1</v>
+      </c>
+      <c r="D38" s="39"/>
+      <c r="E38" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="15"/>
+    </row>
+    <row r="39" spans="1:10" ht="15" thickBot="1">
+      <c r="A39" s="20" t="s">
+        <v>295</v>
+      </c>
+      <c r="B39" s="20" t="s">
+        <v>296</v>
+      </c>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="J39" s="15"/>
+    </row>
+    <row r="40" spans="1:10" ht="29.4" thickBot="1">
+      <c r="A40" s="20" t="s">
+        <v>297</v>
+      </c>
+      <c r="B40" s="20" t="s">
+        <v>298</v>
+      </c>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="J40" s="15"/>
+    </row>
+    <row r="41" spans="1:10" ht="29.4" thickBot="1">
+      <c r="A41" s="20" t="s">
+        <v>299</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="J41" s="15"/>
+    </row>
+    <row r="42" spans="1:10" ht="43.8" thickBot="1">
+      <c r="A42" s="20" t="s">
+        <v>301</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>302</v>
+      </c>
+      <c r="C42" s="20"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="J42" s="15"/>
+    </row>
+    <row r="43" spans="1:10" ht="43.8" thickBot="1">
+      <c r="A43" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>304</v>
+      </c>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="20"/>
+      <c r="I43" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="J43" s="15"/>
+    </row>
+    <row r="44" spans="1:10" ht="43.8" thickBot="1">
+      <c r="A44" s="20" t="s">
+        <v>305</v>
+      </c>
+      <c r="B44" s="20" t="s">
+        <v>306</v>
+      </c>
+      <c r="C44" s="20"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="20"/>
+      <c r="H44" s="20"/>
+      <c r="I44" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="J44" s="15"/>
+    </row>
+    <row r="45" spans="1:10" ht="43.8" thickBot="1">
+      <c r="A45" s="20" t="s">
+        <v>307</v>
+      </c>
+      <c r="B45" s="20" t="s">
+        <v>308</v>
+      </c>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="20"/>
+      <c r="I45" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="J45" s="15"/>
+    </row>
+    <row r="46" spans="1:10" ht="43.2">
+      <c r="A46" s="20" t="s">
+        <v>309</v>
+      </c>
+      <c r="B46" s="20" t="s">
+        <v>310</v>
+      </c>
+      <c r="C46" s="20"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J46" s="15"/>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="20" t="s">
+        <v>344</v>
+      </c>
+      <c r="B47" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="C47" s="20"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="15"/>
+    </row>
+    <row r="48" spans="1:10" ht="28.8">
+      <c r="A48" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="B48" s="20" t="s">
+        <v>348</v>
+      </c>
+      <c r="C48" s="20"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="15"/>
+    </row>
+    <row r="49" spans="1:10" ht="28.8">
+      <c r="A49" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="B49" s="20" t="s">
+        <v>349</v>
+      </c>
+      <c r="C49" s="20"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G49" s="15"/>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="15"/>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="B50" s="20" t="s">
+        <v>353</v>
+      </c>
+      <c r="C50" s="20"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J50" s="15"/>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="B51" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="C51" s="20"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J51" s="15"/>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="20" t="s">
+        <v>352</v>
+      </c>
+      <c r="B52" s="20" t="s">
+        <v>355</v>
+      </c>
+      <c r="C52" s="20"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="15"/>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J52" s="15"/>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="20"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="15"/>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="15"/>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="20"/>
+      <c r="B54" s="20"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="15"/>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="20"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="15"/>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="15"/>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="20"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="15"/>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="15"/>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="20"/>
+      <c r="B57" s="20"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="15"/>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="20"/>
+      <c r="B58" s="20"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="15"/>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" s="20"/>
+      <c r="B59" s="20"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="15"/>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="15"/>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" s="15"/>
+      <c r="B60" s="15"/>
+      <c r="C60" s="15"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="15"/>
+      <c r="G60" s="15"/>
+      <c r="H60" s="15"/>
+      <c r="I60" s="15"/>
+      <c r="J60" s="15"/>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" s="17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="17">
-      <c r="A25" s="9" t="s">
+    <row r="63" spans="1:10" ht="17.399999999999999">
+      <c r="A63" s="9" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="32">
-      <c r="A26" s="13" t="s">
+    <row r="64" spans="1:10" ht="28.8">
+      <c r="A64" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B64" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="36" t="s">
+      <c r="C64" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="37"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="36" t="s">
+      <c r="D64" s="86"/>
+      <c r="E64" s="86"/>
+      <c r="F64" s="87"/>
+      <c r="G64" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="G26" s="38"/>
-    </row>
-    <row r="27" spans="1:9" ht="16">
-      <c r="A27" s="14" t="s">
+      <c r="H64" s="87"/>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B65" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="C27" s="39" t="s">
+      <c r="C65" s="88" t="s">
         <v>100</v>
       </c>
-      <c r="D27" s="40" t="s">
+      <c r="D65" s="89"/>
+      <c r="E65" s="89" t="s">
         <v>100</v>
       </c>
-      <c r="E27" s="41" t="s">
+      <c r="F65" s="90" t="s">
         <v>100</v>
       </c>
-      <c r="F27" s="42" t="s">
+      <c r="G65" s="91" t="s">
         <v>101</v>
       </c>
-      <c r="G27" s="43" t="s">
+      <c r="H65" s="92" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="16">
-      <c r="A28" s="14" t="s">
+    <row r="66" spans="1:8">
+      <c r="A66" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B66" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="C28" s="39" t="s">
+      <c r="C66" s="88" t="s">
         <v>103</v>
       </c>
-      <c r="D28" s="40" t="s">
+      <c r="D66" s="89"/>
+      <c r="E66" s="89" t="s">
         <v>103</v>
       </c>
-      <c r="E28" s="41" t="s">
+      <c r="F66" s="90" t="s">
         <v>103</v>
       </c>
-      <c r="F28" s="42" t="s">
+      <c r="G66" s="91" t="s">
         <v>79</v>
       </c>
-      <c r="G28" s="43" t="s">
+      <c r="H66" s="92" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="19.25" customHeight="1">
-      <c r="A29" s="14" t="s">
+    <row r="67" spans="1:8" ht="19.2" customHeight="1">
+      <c r="A67" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B67" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="C29" s="39" t="s">
+      <c r="C67" s="88" t="s">
         <v>105</v>
       </c>
-      <c r="D29" s="40" t="s">
+      <c r="D67" s="89"/>
+      <c r="E67" s="89" t="s">
         <v>105</v>
       </c>
-      <c r="E29" s="41" t="s">
+      <c r="F67" s="90" t="s">
         <v>105</v>
       </c>
-      <c r="F29" s="42" t="s">
+      <c r="G67" s="91" t="s">
         <v>80</v>
       </c>
-      <c r="G29" s="43" t="s">
+      <c r="H67" s="92" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="16">
-      <c r="A30" s="14" t="s">
+    <row r="68" spans="1:8">
+      <c r="A68" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B68" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="C30" s="39" t="s">
+      <c r="C68" s="88" t="s">
         <v>107</v>
       </c>
-      <c r="D30" s="40" t="s">
+      <c r="D68" s="89"/>
+      <c r="E68" s="89" t="s">
         <v>107</v>
       </c>
-      <c r="E30" s="41" t="s">
+      <c r="F68" s="90" t="s">
         <v>107</v>
       </c>
-      <c r="F30" s="42" t="s">
+      <c r="G68" s="91" t="s">
         <v>81</v>
       </c>
-      <c r="G30" s="43" t="s">
+      <c r="H68" s="92" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="16">
-      <c r="A31" s="14" t="s">
+    <row r="69" spans="1:8">
+      <c r="A69" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B69" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="C31" s="39" t="s">
+      <c r="C69" s="88" t="s">
         <v>109</v>
       </c>
-      <c r="D31" s="40" t="s">
+      <c r="D69" s="89"/>
+      <c r="E69" s="89" t="s">
         <v>109</v>
       </c>
-      <c r="E31" s="41" t="s">
+      <c r="F69" s="90" t="s">
         <v>109</v>
       </c>
-      <c r="F31" s="42" t="s">
+      <c r="G69" s="91" t="s">
         <v>110</v>
       </c>
-      <c r="G31" s="43" t="s">
+      <c r="H69" s="92" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="16">
-      <c r="A32" s="14" t="s">
+    <row r="70" spans="1:8">
+      <c r="A70" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B70" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="C32" s="39" t="s">
+      <c r="C70" s="88" t="s">
         <v>112</v>
       </c>
-      <c r="D32" s="40" t="s">
+      <c r="D70" s="89"/>
+      <c r="E70" s="89" t="s">
         <v>112</v>
       </c>
-      <c r="E32" s="41" t="s">
+      <c r="F70" s="90" t="s">
         <v>112</v>
       </c>
-      <c r="F32" s="42" t="s">
+      <c r="G70" s="91" t="s">
         <v>84</v>
       </c>
-      <c r="G32" s="43" t="s">
+      <c r="H70" s="92" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="16">
-      <c r="A33" s="14" t="s">
+    <row r="71" spans="1:8">
+      <c r="A71" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B71" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="C33" s="39" t="s">
+      <c r="C71" s="88" t="s">
         <v>114</v>
       </c>
-      <c r="D33" s="40" t="s">
+      <c r="D71" s="89"/>
+      <c r="E71" s="89" t="s">
         <v>114</v>
       </c>
-      <c r="E33" s="41" t="s">
+      <c r="F71" s="90" t="s">
         <v>114</v>
       </c>
-      <c r="F33" s="42" t="s">
+      <c r="G71" s="91" t="s">
         <v>85</v>
       </c>
-      <c r="G33" s="43" t="s">
+      <c r="H71" s="92" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="16">
-      <c r="A34" s="14" t="s">
+    <row r="72" spans="1:8">
+      <c r="A72" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B72" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="C34" s="39" t="s">
+      <c r="C72" s="88" t="s">
         <v>116</v>
       </c>
-      <c r="D34" s="40" t="s">
+      <c r="D72" s="89"/>
+      <c r="E72" s="89" t="s">
         <v>116</v>
       </c>
-      <c r="E34" s="41" t="s">
+      <c r="F72" s="90" t="s">
         <v>116</v>
       </c>
-      <c r="F34" s="42" t="s">
+      <c r="G72" s="91" t="s">
         <v>86</v>
       </c>
-      <c r="G34" s="43" t="s">
+      <c r="H72" s="92" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="47"/>
-      <c r="B35" s="47"/>
-      <c r="C35" s="48"/>
-      <c r="D35" s="48"/>
-      <c r="E35" s="48"/>
-      <c r="F35" s="49"/>
-      <c r="G35" s="49"/>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="47"/>
-      <c r="B36" s="47"/>
-      <c r="C36" s="48"/>
-      <c r="D36" s="48"/>
-      <c r="E36" s="48"/>
-      <c r="F36" s="49"/>
-      <c r="G36" s="49"/>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="47"/>
-      <c r="B37" s="50"/>
-      <c r="C37" s="50"/>
-      <c r="D37" s="50"/>
-      <c r="E37" s="50"/>
-      <c r="F37" s="50"/>
-      <c r="G37" s="50"/>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="50"/>
-      <c r="B38" s="50"/>
-      <c r="C38" s="50"/>
-      <c r="D38" s="50"/>
-      <c r="E38" s="50"/>
-      <c r="F38" s="50"/>
-      <c r="G38" s="50"/>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="B40" s="46"/>
-      <c r="C40" s="46"/>
-      <c r="D40" s="46"/>
-      <c r="E40" s="46"/>
+    <row r="73" spans="1:8" ht="28.8">
+      <c r="A73" s="33" t="s">
+        <v>179</v>
+      </c>
+      <c r="B73" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="C73" s="68" t="s">
+        <v>178</v>
+      </c>
+      <c r="D73" s="69"/>
+      <c r="E73" s="70"/>
+      <c r="F73" s="71"/>
+      <c r="G73" s="72" t="s">
+        <v>220</v>
+      </c>
+      <c r="H73" s="73"/>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="B74" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="C74" s="74" t="s">
+        <v>237</v>
+      </c>
+      <c r="D74" s="69"/>
+      <c r="E74" s="70"/>
+      <c r="F74" s="71"/>
+      <c r="G74" s="75" t="s">
+        <v>289</v>
+      </c>
+      <c r="H74" s="76"/>
+    </row>
+    <row r="75" spans="1:8" ht="14.55" customHeight="1">
+      <c r="A75" s="47" t="s">
+        <v>290</v>
+      </c>
+      <c r="B75" s="47" t="s">
+        <v>287</v>
+      </c>
+      <c r="C75" s="77" t="s">
+        <v>288</v>
+      </c>
+      <c r="D75" s="78"/>
+      <c r="E75" s="78"/>
+      <c r="F75" s="79"/>
+      <c r="G75" s="80" t="s">
+        <v>294</v>
+      </c>
+      <c r="H75" s="81"/>
+    </row>
+    <row r="76" spans="1:8" ht="28.8">
+      <c r="A76" s="47" t="s">
+        <v>291</v>
+      </c>
+      <c r="B76" s="47" t="s">
+        <v>356</v>
+      </c>
+      <c r="C76" s="66" t="s">
+        <v>358</v>
+      </c>
+      <c r="D76" s="66"/>
+      <c r="E76" s="66"/>
+      <c r="F76" s="66"/>
+      <c r="G76" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="28.8">
+      <c r="A77" s="47" t="s">
+        <v>292</v>
+      </c>
+      <c r="B77" s="47" t="s">
+        <v>357</v>
+      </c>
+      <c r="C77" s="67" t="s">
+        <v>360</v>
+      </c>
+      <c r="D77" s="67"/>
+      <c r="E77" s="67"/>
+      <c r="F77" s="67"/>
+      <c r="G77" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="47" t="s">
+        <v>293</v>
+      </c>
+      <c r="B78" s="47" t="s">
+        <v>387</v>
+      </c>
+      <c r="C78" s="67" t="s">
+        <v>389</v>
+      </c>
+      <c r="D78" s="67"/>
+      <c r="E78" s="67"/>
+      <c r="F78" s="67"/>
+      <c r="G78" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="28"/>
+    </row>
+    <row r="82" spans="2:6">
+      <c r="B82" s="27"/>
+      <c r="C82" s="27"/>
+      <c r="D82" s="27"/>
+      <c r="E82" s="27"/>
+      <c r="F82" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="F30:G30"/>
+  <mergeCells count="28">
+    <mergeCell ref="C72:F72"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="C69:F69"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="C70:F70"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="C71:F71"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="C66:F66"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="C67:F67"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="C68:F68"/>
+    <mergeCell ref="G68:H68"/>
     <mergeCell ref="A4:C4"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="C64:F64"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="C65:F65"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="C76:F76"/>
+    <mergeCell ref="C77:F77"/>
+    <mergeCell ref="C78:F78"/>
+    <mergeCell ref="C73:F73"/>
+    <mergeCell ref="G73:H73"/>
+    <mergeCell ref="C74:F74"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="C75:F75"/>
+    <mergeCell ref="G75:H75"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="1.1811023622047243" right="0.78740157480314965" top="0.78740157480314965" bottom="0.78740157480314965" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -4483,30 +6520,31 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBF123E7-2EB5-48C5-B5DD-E8CB50F3BF35}">
-  <dimension ref="A1:P26"/>
+  <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A6" zoomScale="93" zoomScaleNormal="85" zoomScalePageLayoutView="93" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView view="pageLayout" topLeftCell="A31" zoomScale="130" zoomScaleNormal="85" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="6.83203125" customWidth="1"/>
+    <col min="1" max="1" width="6.77734375" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" customWidth="1"/>
     <col min="3" max="3" width="21.33203125" customWidth="1"/>
-    <col min="4" max="4" width="15.83203125" customWidth="1"/>
+    <col min="4" max="4" width="15.77734375" customWidth="1"/>
     <col min="5" max="5" width="11.33203125" customWidth="1"/>
     <col min="6" max="6" width="11.6640625" customWidth="1"/>
-    <col min="7" max="7" width="13.83203125" customWidth="1"/>
-    <col min="8" max="8" width="7.5" customWidth="1"/>
-    <col min="9" max="9" width="8.83203125" customWidth="1"/>
+    <col min="7" max="7" width="13.77734375" customWidth="1"/>
+    <col min="8" max="8" width="7.44140625" customWidth="1"/>
+    <col min="9" max="9" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="17">
+    <row r="1" spans="1:13" ht="17.399999999999999">
       <c r="A1" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="24" customFormat="1" ht="30">
+    <row r="2" spans="1:13" s="24" customFormat="1" ht="41.4">
       <c r="A2" s="25" t="s">
         <v>18</v>
       </c>
@@ -4535,447 +6573,1181 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="24" customFormat="1" ht="39">
-      <c r="A3" s="56" t="s">
+    <row r="3" spans="1:13" s="24" customFormat="1" ht="36">
+      <c r="A3" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="C3" s="57" t="s">
+      <c r="C3" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="D3" s="57" t="s">
+      <c r="D3" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="E3" s="57" t="s">
+      <c r="E3" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="F3" s="57" t="s">
+      <c r="F3" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="G3" s="57" t="s">
+      <c r="G3" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="H3" s="57" t="s">
+      <c r="H3" s="32" t="s">
         <v>169</v>
       </c>
-      <c r="I3" s="57" t="s">
+      <c r="I3" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="J3" s="53" t="s">
+      <c r="J3" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54"/>
-    </row>
-    <row r="4" spans="1:16" s="24" customFormat="1" ht="39">
-      <c r="A4" s="56" t="s">
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+    </row>
+    <row r="4" spans="1:13" s="24" customFormat="1" ht="36">
+      <c r="A4" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="32" t="s">
         <v>126</v>
       </c>
-      <c r="C4" s="57" t="s">
+      <c r="C4" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="D4" s="57" t="s">
+      <c r="D4" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="E4" s="57" t="s">
+      <c r="E4" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="F4" s="57" t="s">
+      <c r="F4" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="G4" s="57" t="s">
+      <c r="G4" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="H4" s="57" t="s">
+      <c r="H4" s="32" t="s">
         <v>169</v>
       </c>
-      <c r="I4" s="57" t="s">
+      <c r="I4" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="J4" s="50"/>
-      <c r="K4" s="55" t="s">
+      <c r="J4"/>
+      <c r="K4" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="L4" s="50"/>
-      <c r="M4" s="50"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="54"/>
-    </row>
-    <row r="5" spans="1:16" s="24" customFormat="1" ht="39">
-      <c r="A5" s="56" t="s">
+      <c r="L4"/>
+      <c r="M4"/>
+    </row>
+    <row r="5" spans="1:13" s="24" customFormat="1" ht="36">
+      <c r="A5" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="C5" s="57" t="s">
+      <c r="C5" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="D5" s="57" t="s">
+      <c r="D5" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="E5" s="57" t="s">
+      <c r="E5" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="F5" s="57" t="s">
+      <c r="F5" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="G5" s="57" t="s">
+      <c r="G5" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="H5" s="57" t="s">
+      <c r="H5" s="32" t="s">
         <v>169</v>
       </c>
-      <c r="I5" s="57" t="s">
+      <c r="I5" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="J5" s="50"/>
-      <c r="K5" s="55" t="s">
+      <c r="J5"/>
+      <c r="K5" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="L5" s="50"/>
-      <c r="M5" s="50"/>
-      <c r="N5" s="54"/>
-      <c r="O5" s="54"/>
-      <c r="P5" s="54"/>
-    </row>
-    <row r="6" spans="1:16" s="24" customFormat="1" ht="39">
-      <c r="A6" s="56" t="s">
+      <c r="L5"/>
+      <c r="M5"/>
+    </row>
+    <row r="6" spans="1:13" s="24" customFormat="1" ht="36">
+      <c r="A6" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="57" t="s">
+      <c r="B6" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="C6" s="57" t="s">
+      <c r="C6" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="D6" s="57" t="s">
+      <c r="D6" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="E6" s="57" t="s">
+      <c r="E6" s="32" t="s">
         <v>135</v>
       </c>
-      <c r="F6" s="57" t="s">
+      <c r="F6" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="G6" s="57" t="s">
+      <c r="G6" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="H6" s="57" t="s">
+      <c r="H6" s="32" t="s">
         <v>169</v>
       </c>
-      <c r="I6" s="57" t="s">
+      <c r="I6" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="J6" s="50"/>
-      <c r="K6" s="55" t="s">
+      <c r="J6"/>
+      <c r="K6" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="L6" s="50"/>
-      <c r="M6" s="50"/>
-      <c r="N6" s="54"/>
-      <c r="O6" s="54"/>
-      <c r="P6" s="54"/>
-    </row>
-    <row r="7" spans="1:16" s="24" customFormat="1" ht="52">
-      <c r="A7" s="56" t="s">
+      <c r="L6"/>
+      <c r="M6"/>
+    </row>
+    <row r="7" spans="1:13" s="24" customFormat="1" ht="36">
+      <c r="A7" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="32" t="s">
         <v>136</v>
       </c>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="D7" s="57" t="s">
+      <c r="D7" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="E7" s="57" t="s">
+      <c r="E7" s="32" t="s">
         <v>138</v>
       </c>
-      <c r="F7" s="57" t="s">
+      <c r="F7" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="G7" s="57" t="s">
+      <c r="G7" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="H7" s="57" t="s">
+      <c r="H7" s="32" t="s">
         <v>169</v>
       </c>
-      <c r="I7" s="57" t="s">
+      <c r="I7" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="J7" s="50"/>
-      <c r="K7" s="55" t="s">
+      <c r="J7"/>
+      <c r="K7" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="L7" s="50"/>
-      <c r="M7" s="50"/>
-      <c r="N7" s="54"/>
-      <c r="O7" s="54"/>
-      <c r="P7" s="54"/>
-    </row>
-    <row r="8" spans="1:16" s="24" customFormat="1" ht="39">
-      <c r="A8" s="56" t="s">
+      <c r="L7"/>
+      <c r="M7"/>
+    </row>
+    <row r="8" spans="1:13" s="24" customFormat="1" ht="36">
+      <c r="A8" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="57" t="s">
+      <c r="B8" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="C8" s="57" t="s">
+      <c r="C8" s="32" t="s">
         <v>141</v>
       </c>
-      <c r="D8" s="57" t="s">
+      <c r="D8" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="E8" s="57" t="s">
+      <c r="E8" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="F8" s="57" t="s">
+      <c r="F8" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="G8" s="57" t="s">
+      <c r="G8" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="H8" s="57" t="s">
+      <c r="H8" s="32" t="s">
         <v>169</v>
       </c>
-      <c r="I8" s="57" t="s">
+      <c r="I8" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="J8" s="50"/>
-      <c r="K8" s="55" t="s">
+      <c r="J8"/>
+      <c r="K8" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="L8" s="50"/>
-      <c r="M8" s="50"/>
-      <c r="N8" s="54"/>
-      <c r="O8" s="54"/>
-      <c r="P8" s="54"/>
-    </row>
-    <row r="9" spans="1:16" s="24" customFormat="1" ht="39">
-      <c r="A9" s="56" t="s">
+      <c r="L8"/>
+      <c r="M8"/>
+    </row>
+    <row r="9" spans="1:13" s="24" customFormat="1" ht="36">
+      <c r="A9" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="57" t="s">
+      <c r="B9" s="32" t="s">
         <v>145</v>
       </c>
-      <c r="C9" s="57" t="s">
+      <c r="C9" s="32" t="s">
         <v>146</v>
       </c>
-      <c r="D9" s="57" t="s">
+      <c r="D9" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="E9" s="57" t="s">
+      <c r="E9" s="32" t="s">
         <v>147</v>
       </c>
-      <c r="F9" s="57" t="s">
+      <c r="F9" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="G9" s="57" t="s">
+      <c r="G9" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="H9" s="57" t="s">
+      <c r="H9" s="32" t="s">
         <v>169</v>
       </c>
-      <c r="I9" s="57" t="s">
+      <c r="I9" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="J9" s="50"/>
-      <c r="K9" s="55" t="s">
+      <c r="J9"/>
+      <c r="K9" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="L9" s="50"/>
-      <c r="M9" s="50"/>
-      <c r="N9" s="54"/>
-      <c r="O9" s="54"/>
-      <c r="P9" s="54"/>
-    </row>
-    <row r="10" spans="1:16" s="24" customFormat="1" ht="39">
-      <c r="A10" s="56" t="s">
+      <c r="L9"/>
+      <c r="M9"/>
+    </row>
+    <row r="10" spans="1:13" s="24" customFormat="1" ht="36">
+      <c r="A10" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="B10" s="57" t="s">
+      <c r="B10" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="C10" s="57" t="s">
+      <c r="C10" s="32" t="s">
         <v>148</v>
       </c>
-      <c r="D10" s="57" t="s">
+      <c r="D10" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="E10" s="57" t="s">
+      <c r="E10" s="32" t="s">
         <v>149</v>
       </c>
-      <c r="F10" s="57" t="s">
+      <c r="F10" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="G10" s="57" t="s">
+      <c r="G10" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="H10" s="57" t="s">
+      <c r="H10" s="32" t="s">
         <v>169</v>
       </c>
-      <c r="I10" s="57" t="s">
+      <c r="I10" s="32" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="52">
-      <c r="A11" s="56" t="s">
+    <row r="11" spans="1:13" ht="36">
+      <c r="A11" s="31" t="s">
         <v>168</v>
       </c>
-      <c r="B11" s="57" t="s">
+      <c r="B11" s="32" t="s">
         <v>151</v>
       </c>
-      <c r="C11" s="57" t="s">
+      <c r="C11" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="D11" s="57" t="s">
+      <c r="D11" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="E11" s="57" t="s">
+      <c r="E11" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="F11" s="57" t="s">
+      <c r="F11" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="G11" s="57" t="s">
+      <c r="G11" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="H11" s="57" t="s">
+      <c r="H11" s="32" t="s">
         <v>169</v>
       </c>
-      <c r="I11" s="57" t="s">
+      <c r="I11" s="32" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="39">
-      <c r="A12" s="56" t="s">
+    <row r="12" spans="1:13" ht="36">
+      <c r="A12" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="B12" s="57" t="s">
+      <c r="B12" s="32" t="s">
         <v>154</v>
       </c>
-      <c r="C12" s="57" t="s">
+      <c r="C12" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="D12" s="57" t="s">
+      <c r="D12" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="E12" s="57" t="s">
+      <c r="E12" s="32" t="s">
         <v>156</v>
       </c>
-      <c r="F12" s="57" t="s">
+      <c r="F12" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="G12" s="57" t="s">
+      <c r="G12" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="H12" s="57" t="s">
+      <c r="H12" s="32" t="s">
         <v>169</v>
       </c>
-      <c r="I12" s="57" t="s">
+      <c r="I12" s="32" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="52">
-      <c r="A13" s="56" t="s">
+    <row r="13" spans="1:13" ht="48">
+      <c r="A13" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="B13" s="57" t="s">
+      <c r="B13" s="32" t="s">
         <v>158</v>
       </c>
-      <c r="C13" s="57" t="s">
+      <c r="C13" s="32" t="s">
         <v>159</v>
       </c>
-      <c r="D13" s="57" t="s">
+      <c r="D13" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="E13" s="57" t="s">
+      <c r="E13" s="32" t="s">
         <v>160</v>
       </c>
-      <c r="F13" s="57" t="s">
+      <c r="F13" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="G13" s="57" t="s">
+      <c r="G13" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="H13" s="57" t="s">
+      <c r="H13" s="32" t="s">
         <v>169</v>
       </c>
-      <c r="I13" s="57" t="s">
+      <c r="I13" s="32" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="52">
-      <c r="A14" s="56" t="s">
+    <row r="14" spans="1:13" ht="36">
+      <c r="A14" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="B14" s="57" t="s">
+      <c r="B14" s="32" t="s">
         <v>163</v>
       </c>
-      <c r="C14" s="57" t="s">
+      <c r="C14" s="32" t="s">
         <v>164</v>
       </c>
-      <c r="D14" s="57" t="s">
+      <c r="D14" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="E14" s="57" t="s">
+      <c r="E14" s="32" t="s">
         <v>165</v>
       </c>
-      <c r="F14" s="57" t="s">
+      <c r="F14" s="32" t="s">
         <v>166</v>
       </c>
-      <c r="G14" s="57" t="s">
+      <c r="G14" s="32" t="s">
         <v>166</v>
       </c>
-      <c r="H14" s="57" t="s">
+      <c r="H14" s="32" t="s">
         <v>169</v>
       </c>
-      <c r="I14" s="57" t="s">
+      <c r="I14" s="32" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
-      <c r="A15" s="51"/>
-      <c r="B15" s="52"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="B16" s="23"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="B17" s="23"/>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="B18" s="23"/>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="46"/>
-      <c r="B26" s="46"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="46"/>
-      <c r="H26" s="46"/>
-      <c r="I26" s="46"/>
+    <row r="15" spans="1:13" ht="114">
+      <c r="A15" s="34" t="s">
+        <v>221</v>
+      </c>
+      <c r="B15" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="C15" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="D15" s="36" t="s">
+        <v>182</v>
+      </c>
+      <c r="E15" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="F15" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="G15" s="38" t="s">
+        <v>185</v>
+      </c>
+      <c r="H15" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="I15" s="29"/>
+    </row>
+    <row r="16" spans="1:13" ht="99.6">
+      <c r="A16" s="34" t="s">
+        <v>222</v>
+      </c>
+      <c r="B16" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="C16" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="D16" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="E16" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="F16" s="35" t="s">
+        <v>190</v>
+      </c>
+      <c r="G16" s="38" t="s">
+        <v>191</v>
+      </c>
+      <c r="H16" s="37" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="85.2">
+      <c r="A17" s="34" t="s">
+        <v>223</v>
+      </c>
+      <c r="B17" s="35" t="s">
+        <v>192</v>
+      </c>
+      <c r="C17" s="35" t="s">
+        <v>193</v>
+      </c>
+      <c r="D17" s="36" t="s">
+        <v>194</v>
+      </c>
+      <c r="E17" s="36" t="s">
+        <v>195</v>
+      </c>
+      <c r="F17" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="G17" s="38" t="s">
+        <v>197</v>
+      </c>
+      <c r="H17" s="37" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="115.2">
+      <c r="A18" s="34" t="s">
+        <v>224</v>
+      </c>
+      <c r="B18" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="C18" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="D18" s="36" t="s">
+        <v>200</v>
+      </c>
+      <c r="E18" s="36" t="s">
+        <v>201</v>
+      </c>
+      <c r="F18" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="G18" s="38" t="s">
+        <v>203</v>
+      </c>
+      <c r="H18" s="37" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="115.2">
+      <c r="A19" s="34" t="s">
+        <v>225</v>
+      </c>
+      <c r="B19" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="C19" s="35" t="s">
+        <v>205</v>
+      </c>
+      <c r="D19" s="36" t="s">
+        <v>206</v>
+      </c>
+      <c r="E19" s="36" t="s">
+        <v>207</v>
+      </c>
+      <c r="F19" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="G19" s="38" t="s">
+        <v>203</v>
+      </c>
+      <c r="H19" s="37" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="72.599999999999994" thickBot="1">
+      <c r="A20" s="34" t="s">
+        <v>226</v>
+      </c>
+      <c r="B20" s="35" t="s">
+        <v>208</v>
+      </c>
+      <c r="C20" s="35" t="s">
+        <v>209</v>
+      </c>
+      <c r="D20" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="E20" s="36" t="s">
+        <v>211</v>
+      </c>
+      <c r="F20" s="35" t="s">
+        <v>212</v>
+      </c>
+      <c r="G20" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="H20" s="37" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="124.8" thickBot="1">
+      <c r="A21" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="B21" s="41" t="s">
+        <v>239</v>
+      </c>
+      <c r="C21" s="41" t="s">
+        <v>240</v>
+      </c>
+      <c r="D21" s="42" t="s">
+        <v>241</v>
+      </c>
+      <c r="E21" s="41" t="s">
+        <v>242</v>
+      </c>
+      <c r="F21" s="43" t="b">
+        <v>1</v>
+      </c>
+      <c r="G21" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" s="41" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="124.8" thickBot="1">
+      <c r="A22" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="B22" s="40" t="s">
+        <v>243</v>
+      </c>
+      <c r="C22" s="41" t="s">
+        <v>244</v>
+      </c>
+      <c r="D22" s="42" t="s">
+        <v>241</v>
+      </c>
+      <c r="E22" s="41" t="s">
+        <v>245</v>
+      </c>
+      <c r="F22" s="43" t="b">
+        <v>1</v>
+      </c>
+      <c r="G22" s="44" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22" s="41" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="124.8" thickBot="1">
+      <c r="A23" s="20" t="s">
+        <v>268</v>
+      </c>
+      <c r="B23" s="40" t="s">
+        <v>246</v>
+      </c>
+      <c r="C23" s="41" t="s">
+        <v>247</v>
+      </c>
+      <c r="D23" s="42" t="s">
+        <v>241</v>
+      </c>
+      <c r="E23" s="41" t="s">
+        <v>242</v>
+      </c>
+      <c r="F23" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="G23" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23" s="41" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="124.8" thickBot="1">
+      <c r="A24" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="B24" s="41" t="s">
+        <v>248</v>
+      </c>
+      <c r="C24" s="41" t="s">
+        <v>249</v>
+      </c>
+      <c r="D24" s="42" t="s">
+        <v>241</v>
+      </c>
+      <c r="E24" s="41" t="s">
+        <v>250</v>
+      </c>
+      <c r="F24" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="G24" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24" s="41" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="124.8" thickBot="1">
+      <c r="A25" s="20" t="s">
+        <v>270</v>
+      </c>
+      <c r="B25" s="41" t="s">
+        <v>251</v>
+      </c>
+      <c r="C25" s="41" t="s">
+        <v>252</v>
+      </c>
+      <c r="D25" s="42" t="s">
+        <v>241</v>
+      </c>
+      <c r="E25" s="41" t="s">
+        <v>253</v>
+      </c>
+      <c r="F25" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="G25" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25" s="41" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="124.8" thickBot="1">
+      <c r="A26" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="B26" s="41" t="s">
+        <v>254</v>
+      </c>
+      <c r="C26" s="41" t="s">
+        <v>255</v>
+      </c>
+      <c r="D26" s="42" t="s">
+        <v>241</v>
+      </c>
+      <c r="E26" s="41" t="s">
+        <v>256</v>
+      </c>
+      <c r="F26" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="G26" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26" s="41" t="s">
+        <v>169</v>
+      </c>
+      <c r="I26" s="27"/>
+    </row>
+    <row r="27" spans="1:9" ht="124.8" thickBot="1">
+      <c r="A27" s="46" t="s">
+        <v>271</v>
+      </c>
+      <c r="B27" s="41" t="s">
+        <v>257</v>
+      </c>
+      <c r="C27" s="41" t="s">
+        <v>258</v>
+      </c>
+      <c r="D27" s="42" t="s">
+        <v>241</v>
+      </c>
+      <c r="E27" s="41" t="s">
+        <v>259</v>
+      </c>
+      <c r="F27" s="42" t="s">
+        <v>260</v>
+      </c>
+      <c r="G27" s="41" t="s">
+        <v>260</v>
+      </c>
+      <c r="H27" s="41" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="83.4" thickBot="1">
+      <c r="A28" s="46" t="s">
+        <v>272</v>
+      </c>
+      <c r="B28" s="41" t="s">
+        <v>261</v>
+      </c>
+      <c r="C28" s="41" t="s">
+        <v>262</v>
+      </c>
+      <c r="D28" s="42" t="s">
+        <v>241</v>
+      </c>
+      <c r="E28" s="41" t="s">
+        <v>263</v>
+      </c>
+      <c r="F28" s="42" t="s">
+        <v>260</v>
+      </c>
+      <c r="G28" s="41" t="s">
+        <v>260</v>
+      </c>
+      <c r="H28" s="41" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="57.6">
+      <c r="A29" s="46" t="s">
+        <v>362</v>
+      </c>
+      <c r="B29" s="29" t="s">
+        <v>273</v>
+      </c>
+      <c r="C29" s="53" t="s">
+        <v>380</v>
+      </c>
+      <c r="D29" s="54" t="s">
+        <v>369</v>
+      </c>
+      <c r="E29" s="55" t="s">
+        <v>370</v>
+      </c>
+      <c r="F29" s="56" t="s">
+        <v>371</v>
+      </c>
+      <c r="G29" s="55" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29" s="55" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="72">
+      <c r="A30" s="52" t="s">
+        <v>363</v>
+      </c>
+      <c r="B30" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="C30" s="29" t="s">
+        <v>381</v>
+      </c>
+      <c r="D30" s="54" t="s">
+        <v>369</v>
+      </c>
+      <c r="E30" s="29" t="s">
+        <v>374</v>
+      </c>
+      <c r="F30" s="56" t="s">
+        <v>373</v>
+      </c>
+      <c r="G30" s="55" t="s">
+        <v>372</v>
+      </c>
+      <c r="H30" s="55" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="57.6">
+      <c r="A31" s="52" t="s">
+        <v>364</v>
+      </c>
+      <c r="B31" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="C31" t="s">
+        <v>382</v>
+      </c>
+      <c r="D31" s="54" t="s">
+        <v>369</v>
+      </c>
+      <c r="E31" s="29" t="s">
+        <v>375</v>
+      </c>
+      <c r="F31" s="56" t="s">
+        <v>373</v>
+      </c>
+      <c r="G31" s="55" t="s">
+        <v>372</v>
+      </c>
+      <c r="H31" s="55" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="28.8">
+      <c r="A32" s="52" t="s">
+        <v>365</v>
+      </c>
+      <c r="B32" s="29" t="s">
+        <v>276</v>
+      </c>
+      <c r="C32" t="s">
+        <v>383</v>
+      </c>
+      <c r="D32" s="54" t="s">
+        <v>369</v>
+      </c>
+      <c r="E32" s="29" t="s">
+        <v>376</v>
+      </c>
+      <c r="F32" s="56" t="s">
+        <v>373</v>
+      </c>
+      <c r="G32" s="55" t="s">
+        <v>372</v>
+      </c>
+      <c r="H32" s="55" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="28.8">
+      <c r="A33" s="52" t="s">
+        <v>366</v>
+      </c>
+      <c r="B33" s="29" t="s">
+        <v>277</v>
+      </c>
+      <c r="C33" s="29" t="s">
+        <v>384</v>
+      </c>
+      <c r="D33" s="54" t="s">
+        <v>369</v>
+      </c>
+      <c r="E33" s="29" t="s">
+        <v>377</v>
+      </c>
+      <c r="F33" s="56" t="s">
+        <v>373</v>
+      </c>
+      <c r="G33" s="55" t="s">
+        <v>372</v>
+      </c>
+      <c r="H33" s="55" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="28.8">
+      <c r="A34" s="52" t="s">
+        <v>367</v>
+      </c>
+      <c r="B34" s="29" t="s">
+        <v>278</v>
+      </c>
+      <c r="C34" s="29" t="s">
+        <v>385</v>
+      </c>
+      <c r="D34" s="54" t="s">
+        <v>369</v>
+      </c>
+      <c r="E34" s="29" t="s">
+        <v>378</v>
+      </c>
+      <c r="F34" s="56" t="s">
+        <v>373</v>
+      </c>
+      <c r="G34" s="55" t="s">
+        <v>372</v>
+      </c>
+      <c r="H34" s="55" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="55.2">
+      <c r="A35" s="52" t="s">
+        <v>368</v>
+      </c>
+      <c r="B35" s="29" t="s">
+        <v>279</v>
+      </c>
+      <c r="C35" s="29" t="s">
+        <v>386</v>
+      </c>
+      <c r="D35" s="54" t="s">
+        <v>369</v>
+      </c>
+      <c r="E35" s="55" t="s">
+        <v>379</v>
+      </c>
+      <c r="F35" s="56" t="s">
+        <v>373</v>
+      </c>
+      <c r="G35" s="55" t="s">
+        <v>372</v>
+      </c>
+      <c r="H35" s="55" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="15" thickBot="1">
+      <c r="A36" s="52"/>
+      <c r="F36" s="56"/>
+      <c r="G36" s="55"/>
+      <c r="H36" s="55"/>
+    </row>
+    <row r="37" spans="1:9" ht="83.4" thickBot="1">
+      <c r="A37" s="48" t="s">
+        <v>295</v>
+      </c>
+      <c r="B37" s="49" t="s">
+        <v>312</v>
+      </c>
+      <c r="C37" s="49" t="s">
+        <v>313</v>
+      </c>
+      <c r="D37" s="49" t="s">
+        <v>314</v>
+      </c>
+      <c r="E37" s="49" t="s">
+        <v>315</v>
+      </c>
+      <c r="F37" s="49" t="s">
+        <v>316</v>
+      </c>
+      <c r="G37" s="49" t="s">
+        <v>316</v>
+      </c>
+      <c r="H37" s="49" t="s">
+        <v>169</v>
+      </c>
+      <c r="I37" s="49" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="69.599999999999994" thickBot="1">
+      <c r="A38" s="50" t="s">
+        <v>297</v>
+      </c>
+      <c r="B38" s="51" t="s">
+        <v>317</v>
+      </c>
+      <c r="C38" s="51" t="s">
+        <v>318</v>
+      </c>
+      <c r="D38" s="51" t="s">
+        <v>314</v>
+      </c>
+      <c r="E38" s="51" t="s">
+        <v>319</v>
+      </c>
+      <c r="F38" s="51" t="s">
+        <v>320</v>
+      </c>
+      <c r="G38" s="51" t="s">
+        <v>321</v>
+      </c>
+      <c r="H38" s="51" t="s">
+        <v>169</v>
+      </c>
+      <c r="I38" s="51" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="55.8" thickBot="1">
+      <c r="A39" s="50" t="s">
+        <v>299</v>
+      </c>
+      <c r="B39" s="51" t="s">
+        <v>323</v>
+      </c>
+      <c r="C39" s="51" t="s">
+        <v>324</v>
+      </c>
+      <c r="D39" s="51" t="s">
+        <v>314</v>
+      </c>
+      <c r="E39" s="51" t="s">
+        <v>325</v>
+      </c>
+      <c r="F39" s="51" t="s">
+        <v>320</v>
+      </c>
+      <c r="G39" s="51" t="s">
+        <v>321</v>
+      </c>
+      <c r="H39" s="51" t="s">
+        <v>169</v>
+      </c>
+      <c r="I39" s="51" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="83.4" thickBot="1">
+      <c r="A40" s="50" t="s">
+        <v>301</v>
+      </c>
+      <c r="B40" s="51" t="s">
+        <v>326</v>
+      </c>
+      <c r="C40" s="51" t="s">
+        <v>327</v>
+      </c>
+      <c r="D40" s="51" t="s">
+        <v>314</v>
+      </c>
+      <c r="E40" s="51" t="s">
+        <v>328</v>
+      </c>
+      <c r="F40" s="51" t="s">
+        <v>329</v>
+      </c>
+      <c r="G40" s="51" t="s">
+        <v>330</v>
+      </c>
+      <c r="H40" s="51" t="s">
+        <v>169</v>
+      </c>
+      <c r="I40" s="51" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="69.599999999999994" thickBot="1">
+      <c r="A41" s="50" t="s">
+        <v>303</v>
+      </c>
+      <c r="B41" s="51" t="s">
+        <v>332</v>
+      </c>
+      <c r="C41" s="51" t="s">
+        <v>333</v>
+      </c>
+      <c r="D41" s="51" t="s">
+        <v>314</v>
+      </c>
+      <c r="E41" s="51" t="s">
+        <v>334</v>
+      </c>
+      <c r="F41" s="51" t="s">
+        <v>329</v>
+      </c>
+      <c r="G41" s="51" t="s">
+        <v>330</v>
+      </c>
+      <c r="H41" s="51" t="s">
+        <v>169</v>
+      </c>
+      <c r="I41" s="51" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="69.599999999999994" thickBot="1">
+      <c r="A42" s="50" t="s">
+        <v>305</v>
+      </c>
+      <c r="B42" s="51" t="s">
+        <v>335</v>
+      </c>
+      <c r="C42" s="51" t="s">
+        <v>336</v>
+      </c>
+      <c r="D42" s="51" t="s">
+        <v>314</v>
+      </c>
+      <c r="E42" s="51" t="s">
+        <v>337</v>
+      </c>
+      <c r="F42" s="51" t="s">
+        <v>329</v>
+      </c>
+      <c r="G42" s="51" t="s">
+        <v>330</v>
+      </c>
+      <c r="H42" s="51" t="s">
+        <v>169</v>
+      </c>
+      <c r="I42" s="51" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="69.599999999999994" thickBot="1">
+      <c r="A43" s="50" t="s">
+        <v>307</v>
+      </c>
+      <c r="B43" s="51" t="s">
+        <v>338</v>
+      </c>
+      <c r="C43" s="51" t="s">
+        <v>339</v>
+      </c>
+      <c r="D43" s="51" t="s">
+        <v>314</v>
+      </c>
+      <c r="E43" s="51" t="s">
+        <v>340</v>
+      </c>
+      <c r="F43" s="51" t="s">
+        <v>329</v>
+      </c>
+      <c r="G43" s="51" t="s">
+        <v>330</v>
+      </c>
+      <c r="H43" s="51" t="s">
+        <v>169</v>
+      </c>
+      <c r="I43" s="51" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="69.599999999999994" thickBot="1">
+      <c r="A44" s="50" t="s">
+        <v>309</v>
+      </c>
+      <c r="B44" s="51" t="s">
+        <v>341</v>
+      </c>
+      <c r="C44" s="51" t="s">
+        <v>342</v>
+      </c>
+      <c r="D44" s="51" t="s">
+        <v>314</v>
+      </c>
+      <c r="E44" s="51" t="s">
+        <v>343</v>
+      </c>
+      <c r="F44" s="51" t="s">
+        <v>329</v>
+      </c>
+      <c r="G44" s="51" t="s">
+        <v>330</v>
+      </c>
+      <c r="H44" s="51" t="s">
+        <v>169</v>
+      </c>
+      <c r="I44" s="51" t="s">
+        <v>331</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
@@ -4985,12 +7757,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -4999,7 +7765,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010074915C393AE32F488DAFC59F915E5FC2" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="90651a0576269b9c4d158bb3904f875f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3b27b02a-1f5b-4f8d-8610-b846eeb8b122" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="af9056fc8bab3455b74a5b673c376fcb" ns2:_="">
     <xsd:import namespace="3b27b02a-1f5b-4f8d-8610-b846eeb8b122"/>
@@ -5143,24 +7909,13 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8655864D-7A2A-4402-AA52-01C6DA779FC3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="806a97cf-37b5-43d8-9f6a-27e74bb9243f"/>
-    <ds:schemaRef ds:uri="c078926d-f3db-4b74-bbd0-f33b483d4b1e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6913AF88-A569-4E93-8BD1-0040FA9C021A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -5168,7 +7923,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{435DC1B0-EC28-44E2-90F6-956123F24994}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5184,4 +7939,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8655864D-7A2A-4402-AA52-01C6DA779FC3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="806a97cf-37b5-43d8-9f6a-27e74bb9243f"/>
+    <ds:schemaRef ds:uri="c078926d-f3db-4b74-bbd0-f33b483d4b1e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Testing/G2_TestPlan.xlsx
+++ b/Testing/G2_TestPlan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88892AE9-077E-4259-9940-6093373C109E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56285A01-153C-4E3B-BA27-BDE92FF62DDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="6" xr2:uid="{BA49DA37-6C72-4F0C-8F29-A460207C1BDB}"/>
   </bookViews>
@@ -2373,6 +2373,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2416,39 +2449,6 @@
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -5097,8 +5097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8917CA0A-EA61-4F09-84F9-F925FF2C64CE}">
   <dimension ref="A1:J82"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A71" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C79" sqref="C79"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -5131,11 +5131,11 @@
       <c r="B3" s="9"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="82" t="s">
+      <c r="A4" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="83"/>
-      <c r="C4" s="84"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="73"/>
       <c r="D4" s="26" t="s">
         <v>233</v>
       </c>
@@ -5166,15 +5166,30 @@
       <c r="C5" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="15"/>
+      <c r="D5" s="15">
+        <f>COUNTIF(D6:D1042,"=x")</f>
+        <v>2</v>
+      </c>
       <c r="E5" s="15">
         <f>COUNTIF(E6:E1042,"=x")</f>
         <v>20</v>
       </c>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
+      <c r="F5" s="15">
+        <f>COUNTIF(F6:F1042,"=x")</f>
+        <v>11</v>
+      </c>
+      <c r="G5" s="15">
+        <f>COUNTIF(G6:G1042,"=x")</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="15">
+        <f>COUNTIF(H6:H1042,"=x")</f>
+        <v>1</v>
+      </c>
+      <c r="I5" s="15">
+        <f>COUNTIF(I6:I1042,"=x")</f>
+        <v>12</v>
+      </c>
       <c r="J5" s="15"/>
     </row>
     <row r="6" spans="1:10" s="16" customFormat="1">
@@ -6163,16 +6178,16 @@
       <c r="B64" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C64" s="85" t="s">
+      <c r="C64" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="D64" s="86"/>
-      <c r="E64" s="86"/>
-      <c r="F64" s="87"/>
-      <c r="G64" s="85" t="s">
+      <c r="D64" s="75"/>
+      <c r="E64" s="75"/>
+      <c r="F64" s="76"/>
+      <c r="G64" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="H64" s="87"/>
+      <c r="H64" s="76"/>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="14" t="s">
@@ -6181,20 +6196,20 @@
       <c r="B65" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="C65" s="88" t="s">
+      <c r="C65" s="66" t="s">
         <v>100</v>
       </c>
-      <c r="D65" s="89"/>
-      <c r="E65" s="89" t="s">
+      <c r="D65" s="67"/>
+      <c r="E65" s="67" t="s">
         <v>100</v>
       </c>
-      <c r="F65" s="90" t="s">
+      <c r="F65" s="68" t="s">
         <v>100</v>
       </c>
-      <c r="G65" s="91" t="s">
+      <c r="G65" s="69" t="s">
         <v>101</v>
       </c>
-      <c r="H65" s="92" t="s">
+      <c r="H65" s="70" t="s">
         <v>101</v>
       </c>
     </row>
@@ -6205,20 +6220,20 @@
       <c r="B66" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="C66" s="88" t="s">
+      <c r="C66" s="66" t="s">
         <v>103</v>
       </c>
-      <c r="D66" s="89"/>
-      <c r="E66" s="89" t="s">
+      <c r="D66" s="67"/>
+      <c r="E66" s="67" t="s">
         <v>103</v>
       </c>
-      <c r="F66" s="90" t="s">
+      <c r="F66" s="68" t="s">
         <v>103</v>
       </c>
-      <c r="G66" s="91" t="s">
+      <c r="G66" s="69" t="s">
         <v>79</v>
       </c>
-      <c r="H66" s="92" t="s">
+      <c r="H66" s="70" t="s">
         <v>79</v>
       </c>
     </row>
@@ -6229,20 +6244,20 @@
       <c r="B67" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="C67" s="88" t="s">
+      <c r="C67" s="66" t="s">
         <v>105</v>
       </c>
-      <c r="D67" s="89"/>
-      <c r="E67" s="89" t="s">
+      <c r="D67" s="67"/>
+      <c r="E67" s="67" t="s">
         <v>105</v>
       </c>
-      <c r="F67" s="90" t="s">
+      <c r="F67" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="G67" s="91" t="s">
+      <c r="G67" s="69" t="s">
         <v>80</v>
       </c>
-      <c r="H67" s="92" t="s">
+      <c r="H67" s="70" t="s">
         <v>80</v>
       </c>
     </row>
@@ -6253,20 +6268,20 @@
       <c r="B68" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="C68" s="88" t="s">
+      <c r="C68" s="66" t="s">
         <v>107</v>
       </c>
-      <c r="D68" s="89"/>
-      <c r="E68" s="89" t="s">
+      <c r="D68" s="67"/>
+      <c r="E68" s="67" t="s">
         <v>107</v>
       </c>
-      <c r="F68" s="90" t="s">
+      <c r="F68" s="68" t="s">
         <v>107</v>
       </c>
-      <c r="G68" s="91" t="s">
+      <c r="G68" s="69" t="s">
         <v>81</v>
       </c>
-      <c r="H68" s="92" t="s">
+      <c r="H68" s="70" t="s">
         <v>81</v>
       </c>
     </row>
@@ -6277,20 +6292,20 @@
       <c r="B69" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="C69" s="88" t="s">
+      <c r="C69" s="66" t="s">
         <v>109</v>
       </c>
-      <c r="D69" s="89"/>
-      <c r="E69" s="89" t="s">
+      <c r="D69" s="67"/>
+      <c r="E69" s="67" t="s">
         <v>109</v>
       </c>
-      <c r="F69" s="90" t="s">
+      <c r="F69" s="68" t="s">
         <v>109</v>
       </c>
-      <c r="G69" s="91" t="s">
+      <c r="G69" s="69" t="s">
         <v>110</v>
       </c>
-      <c r="H69" s="92" t="s">
+      <c r="H69" s="70" t="s">
         <v>110</v>
       </c>
     </row>
@@ -6301,20 +6316,20 @@
       <c r="B70" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="C70" s="88" t="s">
+      <c r="C70" s="66" t="s">
         <v>112</v>
       </c>
-      <c r="D70" s="89"/>
-      <c r="E70" s="89" t="s">
+      <c r="D70" s="67"/>
+      <c r="E70" s="67" t="s">
         <v>112</v>
       </c>
-      <c r="F70" s="90" t="s">
+      <c r="F70" s="68" t="s">
         <v>112</v>
       </c>
-      <c r="G70" s="91" t="s">
+      <c r="G70" s="69" t="s">
         <v>84</v>
       </c>
-      <c r="H70" s="92" t="s">
+      <c r="H70" s="70" t="s">
         <v>84</v>
       </c>
     </row>
@@ -6325,20 +6340,20 @@
       <c r="B71" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="C71" s="88" t="s">
+      <c r="C71" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="D71" s="89"/>
-      <c r="E71" s="89" t="s">
+      <c r="D71" s="67"/>
+      <c r="E71" s="67" t="s">
         <v>114</v>
       </c>
-      <c r="F71" s="90" t="s">
+      <c r="F71" s="68" t="s">
         <v>114</v>
       </c>
-      <c r="G71" s="91" t="s">
+      <c r="G71" s="69" t="s">
         <v>85</v>
       </c>
-      <c r="H71" s="92" t="s">
+      <c r="H71" s="70" t="s">
         <v>85</v>
       </c>
     </row>
@@ -6349,20 +6364,20 @@
       <c r="B72" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="C72" s="88" t="s">
+      <c r="C72" s="66" t="s">
         <v>116</v>
       </c>
-      <c r="D72" s="89"/>
-      <c r="E72" s="89" t="s">
+      <c r="D72" s="67"/>
+      <c r="E72" s="67" t="s">
         <v>116</v>
       </c>
-      <c r="F72" s="90" t="s">
+      <c r="F72" s="68" t="s">
         <v>116</v>
       </c>
-      <c r="G72" s="91" t="s">
+      <c r="G72" s="69" t="s">
         <v>86</v>
       </c>
-      <c r="H72" s="92" t="s">
+      <c r="H72" s="70" t="s">
         <v>86</v>
       </c>
     </row>
@@ -6373,16 +6388,16 @@
       <c r="B73" s="33" t="s">
         <v>177</v>
       </c>
-      <c r="C73" s="68" t="s">
+      <c r="C73" s="79" t="s">
         <v>178</v>
       </c>
-      <c r="D73" s="69"/>
-      <c r="E73" s="70"/>
-      <c r="F73" s="71"/>
-      <c r="G73" s="72" t="s">
+      <c r="D73" s="80"/>
+      <c r="E73" s="81"/>
+      <c r="F73" s="82"/>
+      <c r="G73" s="83" t="s">
         <v>220</v>
       </c>
-      <c r="H73" s="73"/>
+      <c r="H73" s="84"/>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="14" t="s">
@@ -6391,16 +6406,16 @@
       <c r="B74" s="14" t="s">
         <v>236</v>
       </c>
-      <c r="C74" s="74" t="s">
+      <c r="C74" s="85" t="s">
         <v>237</v>
       </c>
-      <c r="D74" s="69"/>
-      <c r="E74" s="70"/>
-      <c r="F74" s="71"/>
-      <c r="G74" s="75" t="s">
+      <c r="D74" s="80"/>
+      <c r="E74" s="81"/>
+      <c r="F74" s="82"/>
+      <c r="G74" s="86" t="s">
         <v>289</v>
       </c>
-      <c r="H74" s="76"/>
+      <c r="H74" s="87"/>
     </row>
     <row r="75" spans="1:8" ht="14.55" customHeight="1">
       <c r="A75" s="47" t="s">
@@ -6409,16 +6424,16 @@
       <c r="B75" s="47" t="s">
         <v>287</v>
       </c>
-      <c r="C75" s="77" t="s">
+      <c r="C75" s="88" t="s">
         <v>288</v>
       </c>
-      <c r="D75" s="78"/>
-      <c r="E75" s="78"/>
-      <c r="F75" s="79"/>
-      <c r="G75" s="80" t="s">
+      <c r="D75" s="89"/>
+      <c r="E75" s="89"/>
+      <c r="F75" s="90"/>
+      <c r="G75" s="91" t="s">
         <v>294</v>
       </c>
-      <c r="H75" s="81"/>
+      <c r="H75" s="92"/>
     </row>
     <row r="76" spans="1:8" ht="28.8">
       <c r="A76" s="47" t="s">
@@ -6427,12 +6442,12 @@
       <c r="B76" s="47" t="s">
         <v>356</v>
       </c>
-      <c r="C76" s="66" t="s">
+      <c r="C76" s="77" t="s">
         <v>358</v>
       </c>
-      <c r="D76" s="66"/>
-      <c r="E76" s="66"/>
-      <c r="F76" s="66"/>
+      <c r="D76" s="77"/>
+      <c r="E76" s="77"/>
+      <c r="F76" s="77"/>
       <c r="G76" t="s">
         <v>359</v>
       </c>
@@ -6444,12 +6459,12 @@
       <c r="B77" s="47" t="s">
         <v>357</v>
       </c>
-      <c r="C77" s="67" t="s">
+      <c r="C77" s="78" t="s">
         <v>360</v>
       </c>
-      <c r="D77" s="67"/>
-      <c r="E77" s="67"/>
-      <c r="F77" s="67"/>
+      <c r="D77" s="78"/>
+      <c r="E77" s="78"/>
+      <c r="F77" s="78"/>
       <c r="G77" t="s">
         <v>361</v>
       </c>
@@ -6461,12 +6476,12 @@
       <c r="B78" s="47" t="s">
         <v>387</v>
       </c>
-      <c r="C78" s="67" t="s">
+      <c r="C78" s="78" t="s">
         <v>389</v>
       </c>
-      <c r="D78" s="67"/>
-      <c r="E78" s="67"/>
-      <c r="F78" s="67"/>
+      <c r="D78" s="78"/>
+      <c r="E78" s="78"/>
+      <c r="F78" s="78"/>
       <c r="G78" t="s">
         <v>388</v>
       </c>
@@ -6483,25 +6498,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="C72:F72"/>
-    <mergeCell ref="G72:H72"/>
-    <mergeCell ref="C69:F69"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="C70:F70"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="C71:F71"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="C66:F66"/>
-    <mergeCell ref="G66:H66"/>
-    <mergeCell ref="C67:F67"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="C68:F68"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="C64:F64"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="C65:F65"/>
-    <mergeCell ref="G65:H65"/>
     <mergeCell ref="C76:F76"/>
     <mergeCell ref="C77:F77"/>
     <mergeCell ref="C78:F78"/>
@@ -6511,6 +6507,25 @@
     <mergeCell ref="G74:H74"/>
     <mergeCell ref="C75:F75"/>
     <mergeCell ref="G75:H75"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="C64:F64"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="C65:F65"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="C66:F66"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="C67:F67"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="C68:F68"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="C72:F72"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="C69:F69"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="C70:F70"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="C71:F71"/>
+    <mergeCell ref="G71:H71"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="1.1811023622047243" right="0.78740157480314965" top="0.78740157480314965" bottom="0.78740157480314965" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -7766,6 +7781,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010074915C393AE32F488DAFC59F915E5FC2" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="90651a0576269b9c4d158bb3904f875f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3b27b02a-1f5b-4f8d-8610-b846eeb8b122" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="af9056fc8bab3455b74a5b673c376fcb" ns2:_="">
     <xsd:import namespace="3b27b02a-1f5b-4f8d-8610-b846eeb8b122"/>
@@ -7909,12 +7930,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6913AF88-A569-4E93-8BD1-0040FA9C021A}">
   <ds:schemaRefs>
@@ -7924,6 +7939,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8655864D-7A2A-4402-AA52-01C6DA779FC3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="806a97cf-37b5-43d8-9f6a-27e74bb9243f"/>
+    <ds:schemaRef ds:uri="c078926d-f3db-4b74-bbd0-f33b483d4b1e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{435DC1B0-EC28-44E2-90F6-956123F24994}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7939,21 +7971,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8655864D-7A2A-4402-AA52-01C6DA779FC3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="806a97cf-37b5-43d8-9f6a-27e74bb9243f"/>
-    <ds:schemaRef ds:uri="c078926d-f3db-4b74-bbd0-f33b483d4b1e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>